--- a/predicciones_mio.xlsx
+++ b/predicciones_mio.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J181"/>
+  <dimension ref="A1:J201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,116 +492,116 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Mariano Ramos</t>
+          <t>Flora Industrial</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45327</v>
+        <v>45968</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>09:00-12:00</t>
+          <t>15:00-18:00</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="F2" t="n">
-        <v>174</v>
+        <v>61</v>
       </c>
       <c r="G2" t="n">
-        <v>1.10828025477707</v>
+        <v>0.4728682170542636</v>
       </c>
       <c r="H2" t="n">
-        <v>175</v>
+        <v>59</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>3.338582194186313e-165</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Colapsará</t>
+          <t>Estable</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Refugio</t>
+          <t>Piloto</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45327</v>
+        <v>45968</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>09:00-12:00</t>
+          <t>15:00-18:00</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="F3" t="n">
-        <v>93</v>
+        <v>94.00000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7815126050420168</v>
+        <v>1.032967032967033</v>
       </c>
       <c r="H3" t="n">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="I3" t="n">
-        <v>5.313902801430686e-15</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Estable</t>
+          <t>Colapsará</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Versalles</t>
+          <t>Terminal Paso del Comercio</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45327</v>
+        <v>45968</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>15:00-18:00</t>
+          <t>18:00-21:00</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="F4" t="n">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6166666666666667</v>
+        <v>0.4267515923566879</v>
       </c>
       <c r="H4" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I4" t="n">
-        <v>6.358162485552955e-77</v>
+        <v>3.125629724831986e-222</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -612,36 +612,36 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Salomia</t>
+          <t>Cañaverales</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45327</v>
+        <v>45968</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>05:30-09:00</t>
+          <t>Desconocida</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F5" t="n">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="H5" t="n">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="I5" t="n">
-        <v>1.649336040922712e-45</v>
+        <v>7.908612883533142e-138</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -652,36 +652,36 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Chiminangos</t>
+          <t>Unidad Deportiva</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45327</v>
+        <v>45968</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>05:30-09:00</t>
+          <t>15:00-18:00</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="F6" t="n">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5375</v>
+        <v>0.5978260869565217</v>
       </c>
       <c r="H6" t="n">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="I6" t="n">
-        <v>8.759224626558853e-82</v>
+        <v>3.13393524546669e-124</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -692,95 +692,95 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Manzanares</t>
+          <t>Centro</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45327</v>
+        <v>45968</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>15:00-18:00</t>
+          <t>18:00-21:00</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>125</v>
+        <v>123.5</v>
       </c>
       <c r="F7" t="n">
-        <v>135</v>
+        <v>92.68889504804139</v>
       </c>
       <c r="G7" t="n">
-        <v>1.08</v>
+        <v>0.7505173688100517</v>
       </c>
       <c r="H7" t="n">
-        <v>146</v>
+        <v>93</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9999999999999984</v>
+        <v>4.515816636181501e-116</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Colapsará</t>
+          <t>Estable</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Manzana del Saber</t>
+          <t>Prados del Norte</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45327</v>
+        <v>45968</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>12:00-15:00</t>
+          <t>09:00-12:00</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>180</v>
+        <v>113</v>
       </c>
       <c r="F8" t="n">
-        <v>221</v>
+        <v>58</v>
       </c>
       <c r="G8" t="n">
-        <v>1.227777777777778</v>
+        <v>0.5132743362831859</v>
       </c>
       <c r="H8" t="n">
-        <v>211</v>
+        <v>53</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>2.299813116111069e-134</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Colapsará</t>
+          <t>Estable</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Fátima</t>
+          <t>Torre de Cali</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45327</v>
+        <v>45968</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -789,19 +789,19 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="F9" t="n">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="G9" t="n">
-        <v>0.834319526627219</v>
+        <v>0.6225165562913907</v>
       </c>
       <c r="H9" t="n">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0001245442345396831</v>
+        <v>1.517764812487237e-98</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -812,76 +812,76 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Lleras Restrepo</t>
+          <t>Versalles</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>45327</v>
+        <v>45968</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>09:00-12:00</t>
+          <t>12:00-15:00</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>189</v>
+        <v>104</v>
       </c>
       <c r="F10" t="n">
-        <v>195</v>
+        <v>70</v>
       </c>
       <c r="G10" t="n">
-        <v>1.031746031746032</v>
+        <v>0.6730769230769231</v>
       </c>
       <c r="H10" t="n">
-        <v>188</v>
+        <v>68</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>5.431918400499228e-139</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Colapsará</t>
+          <t>Estable</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Cañaverales</t>
+          <t>Villa del Sur</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>45327</v>
+        <v>45968</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>05:30-09:00</t>
+          <t>12:00-15:00</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="F11" t="n">
-        <v>98</v>
+        <v>93.63636363636364</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8521739130434782</v>
+        <v>0.6242424242424243</v>
       </c>
       <c r="H11" t="n">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="I11" t="n">
-        <v>5.452359228386198e-20</v>
+        <v>5.279265047947543e-155</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -892,15 +892,15 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Terminal Andrés Sanín</t>
+          <t>Plaza de Toros</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>45327</v>
+        <v>45968</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -909,19 +909,19 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>166</v>
+        <v>126</v>
       </c>
       <c r="F12" t="n">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6024096385542169</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="H12" t="n">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="I12" t="n">
-        <v>3.581393044502709e-50</v>
+        <v>1.106043209119028e-99</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -932,36 +932,36 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Popular</t>
+          <t>Lleras Restrepo</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>45327</v>
+        <v>45968</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Desconocida</t>
+          <t>18:00-21:00</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="F13" t="n">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6029411764705882</v>
+        <v>0.4939759036144578</v>
       </c>
       <c r="H13" t="n">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="I13" t="n">
-        <v>4.082677492973655e-114</v>
+        <v>3.444819188841863e-200</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -972,36 +972,36 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Terminal Menga</t>
+          <t>Fátima</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>45327</v>
+        <v>45968</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>09:00-12:00</t>
+          <t>12:00-15:00</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="F14" t="n">
-        <v>65</v>
+        <v>145</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8125</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="I14" t="n">
-        <v>6.464964676872825e-09</v>
+        <v>8.511411409728454e-32</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1012,36 +1012,36 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Capri</t>
+          <t>Mariano Ramos</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>45327</v>
+        <v>45968</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>21:00-23:00</t>
+          <t>12:00-15:00</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="F15" t="n">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8195488721804511</v>
+        <v>0.4011627906976744</v>
       </c>
       <c r="H15" t="n">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="I15" t="n">
-        <v>8.80378837681177e-23</v>
+        <v>3.774228682941532e-228</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1052,36 +1052,36 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Prados del Norte</t>
+          <t>San Nicolás</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>45327</v>
+        <v>45968</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>18:00-21:00</t>
+          <t>15:00-18:00</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>94</v>
+        <v>154</v>
       </c>
       <c r="F16" t="n">
-        <v>71</v>
+        <v>103.9056571815718</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7553191489361702</v>
+        <v>0.6747120596205962</v>
       </c>
       <c r="H16" t="n">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="I16" t="n">
-        <v>3.637685969692215e-67</v>
+        <v>5.084967629290548e-99</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1092,95 +1092,95 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Meléndez</t>
+          <t>Chiminangos</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>45327</v>
+        <v>45968</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>21:00-23:00</t>
+          <t>18:00-21:00</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="F17" t="n">
-        <v>55.00000000000001</v>
+        <v>99</v>
       </c>
       <c r="G17" t="n">
-        <v>0.55</v>
+        <v>1.192771084337349</v>
       </c>
       <c r="H17" t="n">
-        <v>46</v>
+        <v>123</v>
       </c>
       <c r="I17" t="n">
-        <v>1.02798049092662e-75</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Estable</t>
+          <t>Colapsará</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Piloto</t>
+          <t>Ciudad Modelo</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>45327</v>
+        <v>45968</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>12:00-15:00</t>
+          <t>15:00-18:00</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="F18" t="n">
-        <v>168</v>
+        <v>125</v>
       </c>
       <c r="G18" t="n">
-        <v>1.105263157894737</v>
+        <v>0.8865248226950354</v>
       </c>
       <c r="H18" t="n">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>1.437907655801705e-29</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Colapsará</t>
+          <t>Estable</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Río Cali</t>
+          <t>Plaza de Caycedo</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>45327</v>
+        <v>45968</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1189,19 +1189,19 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="F19" t="n">
-        <v>116</v>
+        <v>47</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8787878787878788</v>
+        <v>0.5340909090909091</v>
       </c>
       <c r="H19" t="n">
-        <v>121</v>
+        <v>38</v>
       </c>
       <c r="I19" t="n">
-        <v>9.181305699045595e-15</v>
+        <v>1.973406339606917e-125</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1212,36 +1212,36 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Plaza de Toros</t>
+          <t>Universidades</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>45327</v>
+        <v>45968</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>21:00-23:00</t>
+          <t>05:30-09:00</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>88</v>
+        <v>198</v>
       </c>
       <c r="F20" t="n">
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5795454545454546</v>
+        <v>0.6616161616161617</v>
       </c>
       <c r="H20" t="n">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="I20" t="n">
-        <v>6.51592750138999e-70</v>
+        <v>1.286961168293645e-83</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1252,36 +1252,36 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Las Américas</t>
+          <t>Terminal Aguablanca</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>45327</v>
+        <v>45968</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>15:00-18:00</t>
+          <t>18:00-21:00</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="F21" t="n">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7254901960784313</v>
+        <v>0.6701030927835051</v>
       </c>
       <c r="H21" t="n">
-        <v>114</v>
+        <v>63</v>
       </c>
       <c r="I21" t="n">
-        <v>1.491290607004029e-55</v>
+        <v>1.93927830297256e-142</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1292,15 +1292,15 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Ciudad Modelo</t>
+          <t>Refugio</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>45327</v>
+        <v>45968</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1309,19 +1309,19 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="F22" t="n">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5663265306122449</v>
+        <v>0.7808219178082192</v>
       </c>
       <c r="H22" t="n">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I22" t="n">
-        <v>8.275280917387001e-87</v>
+        <v>3.15302709627047e-64</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1332,36 +1332,36 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Universidades</t>
+          <t>Río Cali</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>45327</v>
+        <v>45968</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Desconocida</t>
+          <t>21:00-23:00</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>114</v>
+        <v>120.5</v>
       </c>
       <c r="F23" t="n">
-        <v>61</v>
+        <v>101.4664772727273</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5350877192982456</v>
+        <v>0.8420454545454545</v>
       </c>
       <c r="H23" t="n">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="I23" t="n">
-        <v>1.932930070375785e-127</v>
+        <v>1.06073658003142e-235</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1372,76 +1372,76 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Flora Industrial</t>
+          <t>Santa Rosa</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>45327</v>
+        <v>45968</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>09:00-12:00</t>
+          <t>18:00-21:00</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>195</v>
+        <v>135.5</v>
       </c>
       <c r="F24" t="n">
-        <v>233</v>
+        <v>77.5827367077367</v>
       </c>
       <c r="G24" t="n">
-        <v>1.194871794871795</v>
+        <v>0.5725663225663226</v>
       </c>
       <c r="H24" t="n">
-        <v>217</v>
+        <v>77</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>2.024122318414086e-174</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Colapsará</t>
+          <t>Estable</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Terminal Simón Bolívar</t>
+          <t>Vipasa</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>45327</v>
+        <v>45968</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>21:00-23:00</t>
+          <t>18:00-21:00</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>104</v>
+        <v>168</v>
       </c>
       <c r="F25" t="n">
-        <v>62.99999999999999</v>
+        <v>151</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6057692307692307</v>
+        <v>0.8988095238095238</v>
       </c>
       <c r="H25" t="n">
-        <v>58</v>
+        <v>145</v>
       </c>
       <c r="I25" t="n">
-        <v>9.197562053133152e-65</v>
+        <v>1.898279520175979e-67</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1452,76 +1452,76 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Unidad Deportiva</t>
+          <t>Univalle</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>45327</v>
+        <v>45968</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>21:00-23:00</t>
+          <t>12:00-15:00</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="F26" t="n">
-        <v>157</v>
+        <v>111</v>
       </c>
       <c r="G26" t="n">
-        <v>1.019480519480519</v>
+        <v>0.8102189781021898</v>
       </c>
       <c r="H26" t="n">
-        <v>159</v>
+        <v>110</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>5.041532974677005e-94</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Colapsará</t>
+          <t>Estable</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>San Bosco</t>
+          <t>Estadio</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>45327</v>
+        <v>45968</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>05:30-09:00</t>
+          <t>18:00-21:00</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="F27" t="n">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7204968944099379</v>
+        <v>0.5083798882681564</v>
       </c>
       <c r="H27" t="n">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="I27" t="n">
-        <v>7.559581270777115e-46</v>
+        <v>1.820118076066081e-195</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1536,72 +1536,72 @@
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>45327</v>
+        <v>45968</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>15:00-18:00</t>
+          <t>12:00-15:00</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="F28" t="n">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8333333333333334</v>
+        <v>1.368421052631579</v>
       </c>
       <c r="H28" t="n">
-        <v>86</v>
+        <v>169</v>
       </c>
       <c r="I28" t="n">
-        <v>2.245268802739804e-34</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Estable</t>
+          <t>Colapsará</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Torre de Cali</t>
+          <t>Álamos</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>45327</v>
+        <v>45968</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>15:00-18:00</t>
+          <t>21:00-23:00</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="F29" t="n">
-        <v>87.99999999999999</v>
+        <v>107</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6376811594202898</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="H29" t="n">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="I29" t="n">
-        <v>8.512450151864891e-73</v>
+        <v>1.97671162073198e-219</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1612,33 +1612,33 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Centro</t>
+          <t>Capri</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>45327</v>
+        <v>45968</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>12:00-15:00</t>
+          <t>05:30-09:00</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>104</v>
+        <v>178</v>
       </c>
       <c r="F30" t="n">
-        <v>74</v>
+        <v>185</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7115384615384616</v>
+        <v>1.039325842696629</v>
       </c>
       <c r="H30" t="n">
-        <v>74</v>
+        <v>171</v>
       </c>
       <c r="I30" t="n">
         <v>1</v>
@@ -1652,15 +1652,15 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Calipso</t>
+          <t>Popular</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>45327</v>
+        <v>45968</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1669,19 +1669,19 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="F31" t="n">
-        <v>92.99999999999999</v>
+        <v>57</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5568862275449101</v>
+        <v>0.4418604651162791</v>
       </c>
       <c r="H31" t="n">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="I31" t="n">
-        <v>0.2889724621849835</v>
+        <v>8.341009852205254e-215</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -1692,36 +1692,36 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Univalle</t>
+          <t>Salomia</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
-        <v>45327</v>
+        <v>45968</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>21:00-23:00</t>
+          <t>12:00-15:00</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>112</v>
+        <v>183</v>
       </c>
       <c r="F32" t="n">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="G32" t="n">
-        <v>0.8928571428571429</v>
+        <v>0.7814207650273224</v>
       </c>
       <c r="H32" t="n">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="I32" t="n">
-        <v>2.19072580559797e-08</v>
+        <v>1.81926233456097e-103</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -1732,76 +1732,76 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Álamos</t>
+          <t>Meléndez</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
-        <v>45327</v>
+        <v>45968</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>12:00-15:00</t>
+          <t>15:00-18:00</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="F33" t="n">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G33" t="n">
-        <v>1.02112676056338</v>
+        <v>0.8424242424242424</v>
       </c>
       <c r="H33" t="n">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>4.983784646625606e-44</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Colapsará</t>
+          <t>Estable</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Terminal Paso del Comercio</t>
+          <t>Manzana del Saber</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>45327</v>
+        <v>45968</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>15:00-18:00</t>
+          <t>18:00-21:00</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>197</v>
+        <v>151</v>
       </c>
       <c r="F34" t="n">
-        <v>165</v>
+        <v>109</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8375634517766497</v>
+        <v>0.7218543046357616</v>
       </c>
       <c r="H34" t="n">
-        <v>164</v>
+        <v>109</v>
       </c>
       <c r="I34" t="n">
-        <v>1.520401337003581e-33</v>
+        <v>1.804608870071751e-125</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -1812,76 +1812,76 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Terminal Aguablanca</t>
+          <t>Terminal Menga</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
-        <v>45327</v>
+        <v>45968</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>12:00-15:00</t>
+          <t>09:00-12:00</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="F35" t="n">
-        <v>74</v>
+        <v>132.1623111474071</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5481481481481482</v>
+        <v>0.9373213556553694</v>
       </c>
       <c r="H35" t="n">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="I35" t="n">
-        <v>0.007756169550454744</v>
+        <v>0.9999960443632284</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Estable</t>
+          <t>Colapsará</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Estadio</t>
+          <t>Calipso</t>
         </is>
       </c>
       <c r="B36" s="2" t="n">
-        <v>45327</v>
+        <v>45968</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>12:00-15:00</t>
+          <t>09:00-12:00</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="F36" t="n">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="G36" t="n">
-        <v>0.5447761194029851</v>
+        <v>0.64</v>
       </c>
       <c r="H36" t="n">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="I36" t="n">
-        <v>0.001698666341048988</v>
+        <v>8.20094137832117e-93</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -1892,15 +1892,15 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Vipasa</t>
+          <t>Terminal Andrés Sanín</t>
         </is>
       </c>
       <c r="B37" s="2" t="n">
-        <v>45327</v>
+        <v>45968</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1909,78 +1909,78 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>182</v>
+        <v>98</v>
       </c>
       <c r="F37" t="n">
-        <v>197</v>
+        <v>60</v>
       </c>
       <c r="G37" t="n">
-        <v>1.082417582417582</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="H37" t="n">
-        <v>190</v>
+        <v>56</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>6.504634051627355e-102</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Colapsará</t>
+          <t>Estable</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Mariano Ramos</t>
+          <t>Las Américas</t>
         </is>
       </c>
       <c r="B38" s="2" t="n">
-        <v>45328</v>
+        <v>45968</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>09:00-12:00</t>
+          <t>05:30-09:00</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="F38" t="n">
-        <v>174</v>
+        <v>74</v>
       </c>
       <c r="G38" t="n">
-        <v>1.10828025477707</v>
+        <v>0.4043715846994536</v>
       </c>
       <c r="H38" t="n">
-        <v>175</v>
+        <v>89</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>5.773667314878941e-168</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Colapsará</t>
+          <t>Estable</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Refugio</t>
+          <t>Terminal Simón Bolívar</t>
         </is>
       </c>
       <c r="B39" s="2" t="n">
-        <v>45328</v>
+        <v>45968</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1989,19 +1989,19 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>119</v>
+        <v>185</v>
       </c>
       <c r="F39" t="n">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7815126050420168</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="H39" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I39" t="n">
-        <v>7.711199626984337e-11</v>
+        <v>7.151237205363859e-161</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -2012,36 +2012,36 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Versalles</t>
+          <t>Manzanares</t>
         </is>
       </c>
       <c r="B40" s="2" t="n">
-        <v>45328</v>
+        <v>45968</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>15:00-18:00</t>
+          <t>21:00-23:00</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="F40" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6166666666666667</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="H40" t="n">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I40" t="n">
-        <v>9.226563229098319e-73</v>
+        <v>3.212696526339647e-252</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -2052,76 +2052,76 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Salomia</t>
+          <t>San Bosco</t>
         </is>
       </c>
       <c r="B41" s="2" t="n">
-        <v>45328</v>
+        <v>45968</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>05:30-09:00</t>
+          <t>15:00-18:00</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="F41" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="G41" t="n">
-        <v>0.7222222222222222</v>
+        <v>1.111111111111111</v>
       </c>
       <c r="H41" t="n">
-        <v>65</v>
+        <v>156</v>
       </c>
       <c r="I41" t="n">
-        <v>2.393412137890721e-41</v>
+        <v>1</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Estable</t>
+          <t>Colapsará</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Chiminangos</t>
+          <t>Flora Industrial</t>
         </is>
       </c>
       <c r="B42" s="2" t="n">
-        <v>45328</v>
+        <v>45969</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>05:30-09:00</t>
+          <t>15:00-18:00</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="F42" t="n">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5375</v>
+        <v>0.4728682170542636</v>
       </c>
       <c r="H42" t="n">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="I42" t="n">
-        <v>1.27108327348435e-77</v>
+        <v>1.385959212176844e-242</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -2132,15 +2132,15 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Manzanares</t>
+          <t>Piloto</t>
         </is>
       </c>
       <c r="B43" s="2" t="n">
-        <v>45328</v>
+        <v>45969</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2149,179 +2149,179 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="F43" t="n">
-        <v>135</v>
+        <v>94.00000000000001</v>
       </c>
       <c r="G43" t="n">
-        <v>1.08</v>
+        <v>1.032967032967033</v>
       </c>
       <c r="H43" t="n">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>6.208168521229971e-59</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Colapsará</t>
+          <t>Estable</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Manzana del Saber</t>
+          <t>Terminal Paso del Comercio</t>
         </is>
       </c>
       <c r="B44" s="2" t="n">
-        <v>45328</v>
+        <v>45969</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>12:00-15:00</t>
+          <t>18:00-21:00</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="F44" t="n">
-        <v>221</v>
+        <v>67</v>
       </c>
       <c r="G44" t="n">
-        <v>1.227777777777778</v>
+        <v>0.4267515923566879</v>
       </c>
       <c r="H44" t="n">
-        <v>211</v>
+        <v>73</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>1.297555386992718e-299</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Colapsará</t>
+          <t>Estable</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Fátima</t>
+          <t>Cañaverales</t>
         </is>
       </c>
       <c r="B45" s="2" t="n">
-        <v>45328</v>
+        <v>45969</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>09:00-12:00</t>
+          <t>Desconocida</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>169</v>
+        <v>93</v>
       </c>
       <c r="F45" t="n">
-        <v>141</v>
+        <v>57</v>
       </c>
       <c r="G45" t="n">
-        <v>0.834319526627219</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="H45" t="n">
-        <v>142</v>
+        <v>52</v>
       </c>
       <c r="I45" t="n">
-        <v>0.6438153142587058</v>
+        <v>3.283134649361143e-215</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Riesgo de Colapso</t>
+          <t>Estable</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Lleras Restrepo</t>
+          <t>Unidad Deportiva</t>
         </is>
       </c>
       <c r="B46" s="2" t="n">
-        <v>45328</v>
+        <v>45969</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>09:00-12:00</t>
+          <t>15:00-18:00</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>189</v>
+        <v>92</v>
       </c>
       <c r="F46" t="n">
-        <v>195</v>
+        <v>55</v>
       </c>
       <c r="G46" t="n">
-        <v>1.031746031746032</v>
+        <v>0.5978260869565217</v>
       </c>
       <c r="H46" t="n">
-        <v>188</v>
+        <v>49</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>1.301003291572058e-201</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Colapsará</t>
+          <t>Estable</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Cañaverales</t>
+          <t>Centro</t>
         </is>
       </c>
       <c r="B47" s="2" t="n">
-        <v>45328</v>
+        <v>45969</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>05:30-09:00</t>
+          <t>18:00-21:00</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>115</v>
+        <v>123.5</v>
       </c>
       <c r="F47" t="n">
-        <v>98</v>
+        <v>92.68889504804139</v>
       </c>
       <c r="G47" t="n">
-        <v>0.8521739130434782</v>
+        <v>0.7505173688100517</v>
       </c>
       <c r="H47" t="n">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="I47" t="n">
-        <v>7.912118836655868e-16</v>
+        <v>1.87466933667709e-193</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -2332,15 +2332,15 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Terminal Andrés Sanín</t>
+          <t>Prados del Norte</t>
         </is>
       </c>
       <c r="B48" s="2" t="n">
-        <v>45328</v>
+        <v>45969</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2349,19 +2349,19 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>166</v>
+        <v>113</v>
       </c>
       <c r="F48" t="n">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6024096385542169</v>
+        <v>0.5132743362831859</v>
       </c>
       <c r="H48" t="n">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="I48" t="n">
-        <v>5.197091053970282e-46</v>
+        <v>9.547307776665179e-212</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -2372,36 +2372,36 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Popular</t>
+          <t>Torre de Cali</t>
         </is>
       </c>
       <c r="B49" s="2" t="n">
-        <v>45328</v>
+        <v>45969</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Desconocida</t>
+          <t>09:00-12:00</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="F49" t="n">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="G49" t="n">
-        <v>0.6029411764705882</v>
+        <v>0.6225165562913907</v>
       </c>
       <c r="H49" t="n">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="I49" t="n">
-        <v>5.924523338076039e-110</v>
+        <v>6.300758829444103e-176</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -2412,36 +2412,36 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Terminal Menga</t>
+          <t>Versalles</t>
         </is>
       </c>
       <c r="B50" s="2" t="n">
-        <v>45328</v>
+        <v>45969</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>09:00-12:00</t>
+          <t>12:00-15:00</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="F50" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G50" t="n">
-        <v>0.8125</v>
+        <v>0.6730769230769231</v>
       </c>
       <c r="H50" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I50" t="n">
-        <v>9.380667822440234e-05</v>
+        <v>2.254974390049324e-216</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -2452,36 +2452,36 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Capri</t>
+          <t>Villa del Sur</t>
         </is>
       </c>
       <c r="B51" s="2" t="n">
-        <v>45328</v>
+        <v>45969</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>21:00-23:00</t>
+          <t>12:00-15:00</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="F51" t="n">
-        <v>109</v>
+        <v>93.63636363636364</v>
       </c>
       <c r="G51" t="n">
-        <v>0.8195488721804511</v>
+        <v>0.6242424242424243</v>
       </c>
       <c r="H51" t="n">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="I51" t="n">
-        <v>1.277550083043989e-18</v>
+        <v>2.191602782602573e-232</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -2492,36 +2492,36 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Prados del Norte</t>
+          <t>Plaza de Toros</t>
         </is>
       </c>
       <c r="B52" s="2" t="n">
-        <v>45328</v>
+        <v>45969</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>18:00-21:00</t>
+          <t>09:00-12:00</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="F52" t="n">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G52" t="n">
-        <v>0.7553191489361702</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="H52" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I52" t="n">
-        <v>5.278779786334783e-63</v>
+        <v>4.591562182933664e-177</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -2532,36 +2532,36 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Meléndez</t>
+          <t>Lleras Restrepo</t>
         </is>
       </c>
       <c r="B53" s="2" t="n">
-        <v>45328</v>
+        <v>45969</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>21:00-23:00</t>
+          <t>18:00-21:00</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="F53" t="n">
-        <v>55.00000000000001</v>
+        <v>41</v>
       </c>
       <c r="G53" t="n">
-        <v>0.55</v>
+        <v>0.4939759036144578</v>
       </c>
       <c r="H53" t="n">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="I53" t="n">
-        <v>1.491740266054104e-71</v>
+        <v>1.430061808085143e-277</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -2572,15 +2572,15 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Piloto</t>
+          <t>Fátima</t>
         </is>
       </c>
       <c r="B54" s="2" t="n">
-        <v>45328</v>
+        <v>45969</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2589,59 +2589,59 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F54" t="n">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="G54" t="n">
-        <v>1.105263157894737</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>3.533376854546779e-109</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Colapsará</t>
+          <t>Estable</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Río Cali</t>
+          <t>Mariano Ramos</t>
         </is>
       </c>
       <c r="B55" s="2" t="n">
-        <v>45328</v>
+        <v>45969</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>05:30-09:00</t>
+          <t>12:00-15:00</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="F55" t="n">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="G55" t="n">
-        <v>0.8787878787878788</v>
+        <v>0.4011627906976744</v>
       </c>
       <c r="H55" t="n">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="I55" t="n">
-        <v>1.332333008776054e-10</v>
+        <v>1.566810911857687e-305</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -2652,36 +2652,36 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Plaza de Toros</t>
+          <t>San Nicolás</t>
         </is>
       </c>
       <c r="B56" s="2" t="n">
-        <v>45328</v>
+        <v>45969</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>21:00-23:00</t>
+          <t>15:00-18:00</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>88</v>
+        <v>154</v>
       </c>
       <c r="F56" t="n">
-        <v>51</v>
+        <v>103.9056571815718</v>
       </c>
       <c r="G56" t="n">
-        <v>0.5795454545454546</v>
+        <v>0.6747120596205962</v>
       </c>
       <c r="H56" t="n">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="I56" t="n">
-        <v>9.455501841042822e-66</v>
+        <v>2.110943304528625e-176</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -2692,36 +2692,36 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Las Américas</t>
+          <t>Chiminangos</t>
         </is>
       </c>
       <c r="B57" s="2" t="n">
-        <v>45328</v>
+        <v>45969</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>15:00-18:00</t>
+          <t>18:00-21:00</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="F57" t="n">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="G57" t="n">
-        <v>0.7254901960784313</v>
+        <v>1.192771084337349</v>
       </c>
       <c r="H57" t="n">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="I57" t="n">
-        <v>2.16406660096329e-51</v>
+        <v>1.922299312226295e-48</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -2736,11 +2736,11 @@
         </is>
       </c>
       <c r="B58" s="2" t="n">
-        <v>45328</v>
+        <v>45969</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2749,19 +2749,19 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>196</v>
+        <v>141</v>
       </c>
       <c r="F58" t="n">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="G58" t="n">
-        <v>0.5663265306122449</v>
+        <v>0.8865248226950354</v>
       </c>
       <c r="H58" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I58" t="n">
-        <v>1.200856423476282e-82</v>
+        <v>5.969244565217711e-107</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -2772,36 +2772,36 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Universidades</t>
+          <t>Plaza de Caycedo</t>
         </is>
       </c>
       <c r="B59" s="2" t="n">
-        <v>45328</v>
+        <v>45969</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Desconocida</t>
+          <t>05:30-09:00</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="F59" t="n">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="G59" t="n">
-        <v>0.5350877192982456</v>
+        <v>0.5340909090909091</v>
       </c>
       <c r="H59" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="I59" t="n">
-        <v>2.804945855389874e-123</v>
+        <v>8.192282042686052e-203</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -2812,76 +2812,76 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Flora Industrial</t>
+          <t>Universidades</t>
         </is>
       </c>
       <c r="B60" s="2" t="n">
-        <v>45328</v>
+        <v>45969</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>09:00-12:00</t>
+          <t>05:30-09:00</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F60" t="n">
-        <v>233</v>
+        <v>131</v>
       </c>
       <c r="G60" t="n">
-        <v>1.194871794871795</v>
+        <v>0.6616161616161617</v>
       </c>
       <c r="H60" t="n">
-        <v>217</v>
+        <v>134</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>5.342614269064514e-161</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Colapsará</t>
+          <t>Estable</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Terminal Simón Bolívar</t>
+          <t>Terminal Aguablanca</t>
         </is>
       </c>
       <c r="B61" s="2" t="n">
-        <v>45328</v>
+        <v>45969</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>21:00-23:00</t>
+          <t>18:00-21:00</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F61" t="n">
-        <v>62.99999999999999</v>
+        <v>65</v>
       </c>
       <c r="G61" t="n">
-        <v>0.6057692307692307</v>
+        <v>0.6701030927835051</v>
       </c>
       <c r="H61" t="n">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I61" t="n">
-        <v>1.334692028233188e-60</v>
+        <v>8.050604935411547e-220</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -2892,76 +2892,76 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Unidad Deportiva</t>
+          <t>Refugio</t>
         </is>
       </c>
       <c r="B62" s="2" t="n">
-        <v>45328</v>
+        <v>45969</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>21:00-23:00</t>
+          <t>15:00-18:00</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="F62" t="n">
-        <v>157</v>
+        <v>114</v>
       </c>
       <c r="G62" t="n">
-        <v>1.019480519480519</v>
+        <v>0.7808219178082192</v>
       </c>
       <c r="H62" t="n">
-        <v>159</v>
+        <v>113</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>1.308928969287874e-141</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Colapsará</t>
+          <t>Estable</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>San Bosco</t>
+          <t>Río Cali</t>
         </is>
       </c>
       <c r="B63" s="2" t="n">
-        <v>45328</v>
+        <v>45969</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>05:30-09:00</t>
+          <t>21:00-23:00</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>161</v>
+        <v>120.5</v>
       </c>
       <c r="F63" t="n">
-        <v>116</v>
+        <v>101.4664772727273</v>
       </c>
       <c r="G63" t="n">
-        <v>0.7204968944099379</v>
+        <v>0.8420454545454545</v>
       </c>
       <c r="H63" t="n">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="I63" t="n">
-        <v>1.096998617742396e-41</v>
+        <v>0</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -2972,36 +2972,36 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Villa del Lago</t>
+          <t>Santa Rosa</t>
         </is>
       </c>
       <c r="B64" s="2" t="n">
-        <v>45328</v>
+        <v>45969</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>15:00-18:00</t>
+          <t>18:00-21:00</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>96</v>
+        <v>135.5</v>
       </c>
       <c r="F64" t="n">
-        <v>80</v>
+        <v>77.5827367077367</v>
       </c>
       <c r="G64" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.5725663225663226</v>
       </c>
       <c r="H64" t="n">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="I64" t="n">
-        <v>3.258192067577958e-30</v>
+        <v>8.402821349325746e-252</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -3012,36 +3012,36 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Torre de Cali</t>
+          <t>Vipasa</t>
         </is>
       </c>
       <c r="B65" s="2" t="n">
-        <v>45328</v>
+        <v>45969</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>15:00-18:00</t>
+          <t>18:00-21:00</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="F65" t="n">
-        <v>87.99999999999999</v>
+        <v>151</v>
       </c>
       <c r="G65" t="n">
-        <v>0.6376811594202898</v>
+        <v>0.8988095238095238</v>
       </c>
       <c r="H65" t="n">
-        <v>89</v>
+        <v>145</v>
       </c>
       <c r="I65" t="n">
-        <v>1.23527292262803e-68</v>
+        <v>7.880405019999084e-145</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -3052,15 +3052,15 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Centro</t>
+          <t>Univalle</t>
         </is>
       </c>
       <c r="B66" s="2" t="n">
-        <v>45328</v>
+        <v>45969</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3069,103 +3069,103 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="F66" t="n">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="G66" t="n">
-        <v>0.7115384615384616</v>
+        <v>0.8102189781021898</v>
       </c>
       <c r="H66" t="n">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>2.09291209960757e-171</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Colapsará</t>
+          <t>Estable</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Calipso</t>
+          <t>Estadio</t>
         </is>
       </c>
       <c r="B67" s="2" t="n">
-        <v>45328</v>
+        <v>45969</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>12:00-15:00</t>
+          <t>18:00-21:00</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="F67" t="n">
-        <v>92.99999999999999</v>
+        <v>91</v>
       </c>
       <c r="G67" t="n">
-        <v>0.5568862275449101</v>
+        <v>0.5083798882681564</v>
       </c>
       <c r="H67" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I67" t="n">
-        <v>0.9998304694424432</v>
+        <v>7.555930236392012e-273</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Colapsará</t>
+          <t>Estable</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Univalle</t>
+          <t>Villa del Lago</t>
         </is>
       </c>
       <c r="B68" s="2" t="n">
-        <v>45328</v>
+        <v>45969</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>21:00-23:00</t>
+          <t>12:00-15:00</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F68" t="n">
-        <v>100</v>
+        <v>156</v>
       </c>
       <c r="G68" t="n">
-        <v>0.8928571428571429</v>
+        <v>1.368421052631579</v>
       </c>
       <c r="H68" t="n">
-        <v>108</v>
+        <v>169</v>
       </c>
       <c r="I68" t="n">
-        <v>0.0003178032479629031</v>
+        <v>0.9999999999995535</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Estable</t>
+          <t>Colapsará</t>
         </is>
       </c>
     </row>
@@ -3176,72 +3176,72 @@
         </is>
       </c>
       <c r="B69" s="2" t="n">
-        <v>45328</v>
+        <v>45969</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>12:00-15:00</t>
+          <t>21:00-23:00</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="F69" t="n">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="G69" t="n">
-        <v>1.02112676056338</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="H69" t="n">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>8.206003390723959e-297</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Colapsará</t>
+          <t>Estable</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Terminal Paso del Comercio</t>
+          <t>Capri</t>
         </is>
       </c>
       <c r="B70" s="2" t="n">
-        <v>45328</v>
+        <v>45969</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>15:00-18:00</t>
+          <t>05:30-09:00</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="F70" t="n">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G70" t="n">
-        <v>0.8375634517766497</v>
+        <v>1.039325842696629</v>
       </c>
       <c r="H70" t="n">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="I70" t="n">
-        <v>2.206310251010984e-29</v>
+        <v>3.760617716593606e-37</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -3252,15 +3252,15 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Terminal Aguablanca</t>
+          <t>Popular</t>
         </is>
       </c>
       <c r="B71" s="2" t="n">
-        <v>45328</v>
+        <v>45969</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3269,38 +3269,38 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F71" t="n">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="G71" t="n">
-        <v>0.5481481481481482</v>
+        <v>0.4418604651162791</v>
       </c>
       <c r="H71" t="n">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="I71" t="n">
-        <v>0.991261218343055</v>
+        <v>3.462637362546406e-292</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Colapsará</t>
+          <t>Estable</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Estadio</t>
+          <t>Salomia</t>
         </is>
       </c>
       <c r="B72" s="2" t="n">
-        <v>45328</v>
+        <v>45969</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3309,99 +3309,99 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>134</v>
+        <v>183</v>
       </c>
       <c r="F72" t="n">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="G72" t="n">
-        <v>0.5447761194029851</v>
+        <v>0.7814207650273224</v>
       </c>
       <c r="H72" t="n">
-        <v>71</v>
+        <v>140</v>
       </c>
       <c r="I72" t="n">
-        <v>0.9610772491209221</v>
+        <v>7.552377761859043e-181</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Colapsará</t>
+          <t>Estable</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Vipasa</t>
+          <t>Meléndez</t>
         </is>
       </c>
       <c r="B73" s="2" t="n">
-        <v>45328</v>
+        <v>45969</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>09:00-12:00</t>
+          <t>15:00-18:00</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="F73" t="n">
-        <v>197</v>
+        <v>139</v>
       </c>
       <c r="G73" t="n">
-        <v>1.082417582417582</v>
+        <v>0.8424242424242424</v>
       </c>
       <c r="H73" t="n">
-        <v>190</v>
+        <v>135</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>2.0689388011846e-121</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Colapsará</t>
+          <t>Estable</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Mariano Ramos</t>
+          <t>Manzana del Saber</t>
         </is>
       </c>
       <c r="B74" s="2" t="n">
-        <v>45329</v>
+        <v>45969</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>09:00-12:00</t>
+          <t>18:00-21:00</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F74" t="n">
-        <v>174</v>
+        <v>109</v>
       </c>
       <c r="G74" t="n">
-        <v>1.10828025477707</v>
+        <v>0.7218543046357616</v>
       </c>
       <c r="H74" t="n">
-        <v>175</v>
+        <v>109</v>
       </c>
       <c r="I74" t="n">
-        <v>2.849982765354874e-76</v>
+        <v>7.491546238422225e-203</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -3412,15 +3412,15 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Refugio</t>
+          <t>Terminal Menga</t>
         </is>
       </c>
       <c r="B75" s="2" t="n">
-        <v>45329</v>
+        <v>45969</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3429,19 +3429,19 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="F75" t="n">
-        <v>93</v>
+        <v>132.1623111474071</v>
       </c>
       <c r="G75" t="n">
-        <v>0.7815126050420168</v>
+        <v>0.9373213556553694</v>
       </c>
       <c r="H75" t="n">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="I75" t="n">
-        <v>1.93114451002389e-140</v>
+        <v>1.049470543447887e-72</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -3452,36 +3452,36 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Versalles</t>
+          <t>Calipso</t>
         </is>
       </c>
       <c r="B76" s="2" t="n">
-        <v>45329</v>
+        <v>45969</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>15:00-18:00</t>
+          <t>09:00-12:00</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="F76" t="n">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="G76" t="n">
-        <v>0.6166666666666667</v>
+        <v>0.64</v>
       </c>
       <c r="H76" t="n">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="I76" t="n">
-        <v>2.310642673876109e-202</v>
+        <v>3.404490166993381e-170</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -3492,36 +3492,36 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Salomia</t>
+          <t>Terminal Andrés Sanín</t>
         </is>
       </c>
       <c r="B77" s="2" t="n">
-        <v>45329</v>
+        <v>45969</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>05:30-09:00</t>
+          <t>09:00-12:00</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="F77" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G77" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="H77" t="n">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="I77" t="n">
-        <v>5.993911367281453e-171</v>
+        <v>2.700295203571982e-179</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -3532,15 +3532,15 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Chiminangos</t>
+          <t>Las Américas</t>
         </is>
       </c>
       <c r="B78" s="2" t="n">
-        <v>45329</v>
+        <v>45969</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3549,19 +3549,19 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>80</v>
+        <v>183</v>
       </c>
       <c r="F78" t="n">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="G78" t="n">
-        <v>0.5375</v>
+        <v>0.4043715846994536</v>
       </c>
       <c r="H78" t="n">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="I78" t="n">
-        <v>3.183221293601973e-207</v>
+        <v>2.396846007576171e-245</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -3572,36 +3572,36 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Manzanares</t>
+          <t>Terminal Simón Bolívar</t>
         </is>
       </c>
       <c r="B79" s="2" t="n">
-        <v>45329</v>
+        <v>45969</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>15:00-18:00</t>
+          <t>09:00-12:00</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>125</v>
+        <v>185</v>
       </c>
       <c r="F79" t="n">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="G79" t="n">
-        <v>1.08</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="H79" t="n">
-        <v>146</v>
+        <v>94</v>
       </c>
       <c r="I79" t="n">
-        <v>2.243153563338806e-111</v>
+        <v>2.968722202045673e-238</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -3612,76 +3612,76 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Manzana del Saber</t>
+          <t>Manzanares</t>
         </is>
       </c>
       <c r="B80" s="2" t="n">
-        <v>45329</v>
+        <v>45969</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>12:00-15:00</t>
+          <t>21:00-23:00</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>180</v>
+        <v>96</v>
       </c>
       <c r="F80" t="n">
-        <v>221</v>
+        <v>76</v>
       </c>
       <c r="G80" t="n">
-        <v>1.227777777777778</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="H80" t="n">
-        <v>211</v>
+        <v>78</v>
       </c>
       <c r="I80" t="n">
-        <v>0.9999987859460164</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Colapsará</t>
+          <t>Estable</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Fátima</t>
+          <t>San Bosco</t>
         </is>
       </c>
       <c r="B81" s="2" t="n">
-        <v>45329</v>
+        <v>45969</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>09:00-12:00</t>
+          <t>15:00-18:00</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="F81" t="n">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="G81" t="n">
-        <v>0.834319526627219</v>
+        <v>1.111111111111111</v>
       </c>
       <c r="H81" t="n">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="I81" t="n">
-        <v>4.526670547110244e-130</v>
+        <v>2.60425078182575e-33</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -3692,36 +3692,36 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Lleras Restrepo</t>
+          <t>Flora Industrial</t>
         </is>
       </c>
       <c r="B82" s="2" t="n">
-        <v>45329</v>
+        <v>45970</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>09:00-12:00</t>
+          <t>15:00-18:00</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>189</v>
+        <v>129</v>
       </c>
       <c r="F82" t="n">
-        <v>195</v>
+        <v>61</v>
       </c>
       <c r="G82" t="n">
-        <v>1.031746031746032</v>
+        <v>0.4728682170542636</v>
       </c>
       <c r="H82" t="n">
-        <v>188</v>
+        <v>59</v>
       </c>
       <c r="I82" t="n">
-        <v>2.66334301028725e-91</v>
+        <v>1.851475555146005e-301</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -3732,36 +3732,36 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Cañaverales</t>
+          <t>Piloto</t>
         </is>
       </c>
       <c r="B83" s="2" t="n">
-        <v>45329</v>
+        <v>45970</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>05:30-09:00</t>
+          <t>15:00-18:00</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="F83" t="n">
-        <v>98</v>
+        <v>94.00000000000001</v>
       </c>
       <c r="G83" t="n">
-        <v>0.8521739130434782</v>
+        <v>1.032967032967033</v>
       </c>
       <c r="H83" t="n">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I83" t="n">
-        <v>1.981461457620413e-145</v>
+        <v>8.293369789166805e-118</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -3772,36 +3772,36 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Terminal Andrés Sanín</t>
+          <t>Terminal Paso del Comercio</t>
         </is>
       </c>
       <c r="B84" s="2" t="n">
-        <v>45329</v>
+        <v>45970</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>09:00-12:00</t>
+          <t>18:00-21:00</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="F84" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="G84" t="n">
-        <v>0.6024096385542169</v>
+        <v>0.4267515923566879</v>
       </c>
       <c r="H84" t="n">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="I84" t="n">
-        <v>1.301526914317484e-175</v>
+        <v>0</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -3812,15 +3812,15 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Popular</t>
+          <t>Cañaverales</t>
         </is>
       </c>
       <c r="B85" s="2" t="n">
-        <v>45329</v>
+        <v>45970</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3829,19 +3829,19 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c r="F85" t="n">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="G85" t="n">
-        <v>0.6029411764705882</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="H85" t="n">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="I85" t="n">
-        <v>1.483700496861005e-239</v>
+        <v>4.385874774769403e-274</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -3852,36 +3852,36 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Terminal Menga</t>
+          <t>Unidad Deportiva</t>
         </is>
       </c>
       <c r="B86" s="2" t="n">
-        <v>45329</v>
+        <v>45970</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>09:00-12:00</t>
+          <t>15:00-18:00</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="F86" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G86" t="n">
-        <v>0.8125</v>
+        <v>0.5978260869565217</v>
       </c>
       <c r="H86" t="n">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="I86" t="n">
-        <v>2.349456057155128e-134</v>
+        <v>1.737984617690758e-260</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -3892,36 +3892,36 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Capri</t>
+          <t>Centro</t>
         </is>
       </c>
       <c r="B87" s="2" t="n">
-        <v>45329</v>
+        <v>45970</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>21:00-23:00</t>
+          <t>18:00-21:00</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>133</v>
+        <v>123.5</v>
       </c>
       <c r="F87" t="n">
-        <v>109</v>
+        <v>92.68889504804139</v>
       </c>
       <c r="G87" t="n">
-        <v>0.8195488721804511</v>
+        <v>0.7505173688100517</v>
       </c>
       <c r="H87" t="n">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="I87" t="n">
-        <v>3.19941636619976e-148</v>
+        <v>2.504333764186223e-252</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -3936,32 +3936,32 @@
         </is>
       </c>
       <c r="B88" s="2" t="n">
-        <v>45329</v>
+        <v>45970</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>18:00-21:00</t>
+          <t>09:00-12:00</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="F88" t="n">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="G88" t="n">
-        <v>0.7553191489361702</v>
+        <v>0.5132743362831859</v>
       </c>
       <c r="H88" t="n">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="I88" t="n">
-        <v>1.321984528522194e-192</v>
+        <v>1.275406001175845e-270</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
@@ -3972,36 +3972,36 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Meléndez</t>
+          <t>Torre de Cali</t>
         </is>
       </c>
       <c r="B89" s="2" t="n">
-        <v>45329</v>
+        <v>45970</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>21:00-23:00</t>
+          <t>09:00-12:00</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>100</v>
+        <v>151</v>
       </c>
       <c r="F89" t="n">
-        <v>55.00000000000001</v>
+        <v>94</v>
       </c>
       <c r="G89" t="n">
-        <v>0.55</v>
+        <v>0.6225165562913907</v>
       </c>
       <c r="H89" t="n">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="I89" t="n">
-        <v>3.735820837615141e-201</v>
+        <v>8.417059354340458e-235</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
@@ -4012,15 +4012,15 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Piloto</t>
+          <t>Versalles</t>
         </is>
       </c>
       <c r="B90" s="2" t="n">
-        <v>45329</v>
+        <v>45970</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -4029,19 +4029,19 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="F90" t="n">
-        <v>168</v>
+        <v>70</v>
       </c>
       <c r="G90" t="n">
-        <v>1.105263157894737</v>
+        <v>0.6730769230769231</v>
       </c>
       <c r="H90" t="n">
-        <v>171</v>
+        <v>68</v>
       </c>
       <c r="I90" t="n">
-        <v>7.193523320895327e-19</v>
+        <v>3.012375778432269e-275</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
@@ -4052,36 +4052,36 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Río Cali</t>
+          <t>Villa del Sur</t>
         </is>
       </c>
       <c r="B91" s="2" t="n">
-        <v>45329</v>
+        <v>45970</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>05:30-09:00</t>
+          <t>12:00-15:00</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="F91" t="n">
-        <v>116</v>
+        <v>93.63636363636364</v>
       </c>
       <c r="G91" t="n">
-        <v>0.8787878787878788</v>
+        <v>0.6242424242424243</v>
       </c>
       <c r="H91" t="n">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="I91" t="n">
-        <v>3.336611292699855e-140</v>
+        <v>2.927718898888735e-291</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
@@ -4096,32 +4096,32 @@
         </is>
       </c>
       <c r="B92" s="2" t="n">
-        <v>45329</v>
+        <v>45970</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>21:00-23:00</t>
+          <t>09:00-12:00</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="F92" t="n">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="G92" t="n">
-        <v>0.5795454545454546</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="H92" t="n">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="I92" t="n">
-        <v>2.367976625134212e-195</v>
+        <v>6.133777290806581e-236</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
@@ -4132,36 +4132,36 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Las Américas</t>
+          <t>Lleras Restrepo</t>
         </is>
       </c>
       <c r="B93" s="2" t="n">
-        <v>45329</v>
+        <v>45970</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>15:00-18:00</t>
+          <t>18:00-21:00</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="F93" t="n">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="G93" t="n">
-        <v>0.7254901960784313</v>
+        <v>0.4939759036144578</v>
       </c>
       <c r="H93" t="n">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c r="I93" t="n">
-        <v>5.419552777274283e-181</v>
+        <v>0</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
@@ -4172,36 +4172,36 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Ciudad Modelo</t>
+          <t>Fátima</t>
         </is>
       </c>
       <c r="B94" s="2" t="n">
-        <v>45329</v>
+        <v>45970</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>15:00-18:00</t>
+          <t>12:00-15:00</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>196</v>
+        <v>145</v>
       </c>
       <c r="F94" t="n">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="G94" t="n">
-        <v>0.5663265306122449</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="I94" t="n">
-        <v>3.007349571432683e-212</v>
+        <v>4.720168397335104e-168</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
@@ -4212,36 +4212,36 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Universidades</t>
+          <t>Mariano Ramos</t>
         </is>
       </c>
       <c r="B95" s="2" t="n">
-        <v>45329</v>
+        <v>45970</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Desconocida</t>
+          <t>12:00-15:00</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>114</v>
+        <v>172</v>
       </c>
       <c r="F95" t="n">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="G95" t="n">
-        <v>0.5350877192982456</v>
+        <v>0.4011627906976744</v>
       </c>
       <c r="H95" t="n">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="I95" t="n">
-        <v>7.024530619305517e-253</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
@@ -4252,36 +4252,36 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Flora Industrial</t>
+          <t>San Nicolás</t>
         </is>
       </c>
       <c r="B96" s="2" t="n">
-        <v>45329</v>
+        <v>45970</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>09:00-12:00</t>
+          <t>15:00-18:00</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>195</v>
+        <v>154</v>
       </c>
       <c r="F96" t="n">
-        <v>233</v>
+        <v>103.9056571815718</v>
       </c>
       <c r="G96" t="n">
-        <v>1.194871794871795</v>
+        <v>0.6747120596205962</v>
       </c>
       <c r="H96" t="n">
-        <v>217</v>
+        <v>104</v>
       </c>
       <c r="I96" t="n">
-        <v>2.879147629543775e-59</v>
+        <v>2.819967494206191e-235</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
@@ -4292,36 +4292,36 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Terminal Simón Bolívar</t>
+          <t>Chiminangos</t>
         </is>
       </c>
       <c r="B97" s="2" t="n">
-        <v>45329</v>
+        <v>45970</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>21:00-23:00</t>
+          <t>18:00-21:00</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="F97" t="n">
-        <v>62.99999999999999</v>
+        <v>99</v>
       </c>
       <c r="G97" t="n">
-        <v>0.6057692307692307</v>
+        <v>1.192771084337349</v>
       </c>
       <c r="H97" t="n">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="I97" t="n">
-        <v>3.342519072748227e-190</v>
+        <v>2.567961708390547e-107</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
@@ -4332,36 +4332,36 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Unidad Deportiva</t>
+          <t>Ciudad Modelo</t>
         </is>
       </c>
       <c r="B98" s="2" t="n">
-        <v>45329</v>
+        <v>45970</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>21:00-23:00</t>
+          <t>15:00-18:00</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="F98" t="n">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="G98" t="n">
-        <v>1.019480519480519</v>
+        <v>0.8865248226950354</v>
       </c>
       <c r="H98" t="n">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="I98" t="n">
-        <v>5.843411955703565e-109</v>
+        <v>7.974195992269338e-166</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
@@ -4372,15 +4372,15 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>San Bosco</t>
+          <t>Plaza de Caycedo</t>
         </is>
       </c>
       <c r="B99" s="2" t="n">
-        <v>45329</v>
+        <v>45970</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -4389,19 +4389,19 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>161</v>
+        <v>88</v>
       </c>
       <c r="F99" t="n">
-        <v>116</v>
+        <v>47</v>
       </c>
       <c r="G99" t="n">
-        <v>0.7204968944099379</v>
+        <v>0.5340909090909091</v>
       </c>
       <c r="H99" t="n">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="I99" t="n">
-        <v>2.747254591335414e-171</v>
+        <v>1.094390787956279e-261</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
@@ -4412,36 +4412,36 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Villa del Lago</t>
+          <t>Universidades</t>
         </is>
       </c>
       <c r="B100" s="2" t="n">
-        <v>45329</v>
+        <v>45970</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>15:00-18:00</t>
+          <t>05:30-09:00</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>96</v>
+        <v>198</v>
       </c>
       <c r="F100" t="n">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="G100" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.6616161616161617</v>
       </c>
       <c r="H100" t="n">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="I100" t="n">
-        <v>8.159612028980571e-160</v>
+        <v>7.137092948219892e-220</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
@@ -4452,36 +4452,36 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Torre de Cali</t>
+          <t>Terminal Aguablanca</t>
         </is>
       </c>
       <c r="B101" s="2" t="n">
-        <v>45329</v>
+        <v>45970</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>15:00-18:00</t>
+          <t>18:00-21:00</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="F101" t="n">
-        <v>87.99999999999999</v>
+        <v>65</v>
       </c>
       <c r="G101" t="n">
-        <v>0.6376811594202898</v>
+        <v>0.6701030927835051</v>
       </c>
       <c r="H101" t="n">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="I101" t="n">
-        <v>3.093540095087959e-198</v>
+        <v>1.075464422841331e-278</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
@@ -4492,36 +4492,36 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Centro</t>
+          <t>Refugio</t>
         </is>
       </c>
       <c r="B102" s="2" t="n">
-        <v>45329</v>
+        <v>45970</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>12:00-15:00</t>
+          <t>15:00-18:00</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>104</v>
+        <v>146</v>
       </c>
       <c r="F102" t="n">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="G102" t="n">
-        <v>0.7115384615384616</v>
+        <v>0.7808219178082192</v>
       </c>
       <c r="H102" t="n">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="I102" t="n">
-        <v>3.461130454291588e-96</v>
+        <v>1.748572374112454e-200</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
@@ -4532,36 +4532,36 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Calipso</t>
+          <t>Río Cali</t>
         </is>
       </c>
       <c r="B103" s="2" t="n">
-        <v>45329</v>
+        <v>45970</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>12:00-15:00</t>
+          <t>21:00-23:00</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>167</v>
+        <v>120.5</v>
       </c>
       <c r="F103" t="n">
-        <v>92.99999999999999</v>
+        <v>101.4664772727273</v>
       </c>
       <c r="G103" t="n">
-        <v>0.5568862275449101</v>
+        <v>0.8420454545454545</v>
       </c>
       <c r="H103" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="I103" t="n">
-        <v>1.4769684039106e-126</v>
+        <v>0</v>
       </c>
       <c r="J103" t="inlineStr">
         <is>
@@ -4572,36 +4572,36 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Univalle</t>
+          <t>Santa Rosa</t>
         </is>
       </c>
       <c r="B104" s="2" t="n">
-        <v>45329</v>
+        <v>45970</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>21:00-23:00</t>
+          <t>18:00-21:00</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>112</v>
+        <v>135.5</v>
       </c>
       <c r="F104" t="n">
-        <v>100</v>
+        <v>77.5827367077367</v>
       </c>
       <c r="G104" t="n">
-        <v>0.8928571428571429</v>
+        <v>0.5725663225663226</v>
       </c>
       <c r="H104" t="n">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="I104" t="n">
-        <v>7.961395537739532e-134</v>
+        <v>0</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
@@ -4612,36 +4612,36 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Álamos</t>
+          <t>Vipasa</t>
         </is>
       </c>
       <c r="B105" s="2" t="n">
-        <v>45329</v>
+        <v>45970</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>12:00-15:00</t>
+          <t>18:00-21:00</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="F105" t="n">
+        <v>151</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.8988095238095238</v>
+      </c>
+      <c r="H105" t="n">
         <v>145</v>
       </c>
-      <c r="G105" t="n">
-        <v>1.02112676056338</v>
-      </c>
-      <c r="H105" t="n">
-        <v>150</v>
-      </c>
       <c r="I105" t="n">
-        <v>2.160970523184231e-35</v>
+        <v>1.052727752086063e-203</v>
       </c>
       <c r="J105" t="inlineStr">
         <is>
@@ -4652,36 +4652,36 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Terminal Paso del Comercio</t>
+          <t>Univalle</t>
         </is>
       </c>
       <c r="B106" s="2" t="n">
-        <v>45329</v>
+        <v>45970</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>15:00-18:00</t>
+          <t>12:00-15:00</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>197</v>
+        <v>137</v>
       </c>
       <c r="F106" t="n">
-        <v>165</v>
+        <v>111</v>
       </c>
       <c r="G106" t="n">
-        <v>0.8375634517766497</v>
+        <v>0.8102189781021898</v>
       </c>
       <c r="H106" t="n">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="I106" t="n">
-        <v>5.525345127120149e-159</v>
+        <v>2.795879963456473e-230</v>
       </c>
       <c r="J106" t="inlineStr">
         <is>
@@ -4692,36 +4692,36 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Terminal Aguablanca</t>
+          <t>Estadio</t>
         </is>
       </c>
       <c r="B107" s="2" t="n">
-        <v>45329</v>
+        <v>45970</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>12:00-15:00</t>
+          <t>18:00-21:00</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>135</v>
+        <v>179</v>
       </c>
       <c r="F107" t="n">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="G107" t="n">
-        <v>0.5481481481481482</v>
+        <v>0.5083798882681564</v>
       </c>
       <c r="H107" t="n">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="I107" t="n">
-        <v>2.840730632833998e-128</v>
+        <v>0</v>
       </c>
       <c r="J107" t="inlineStr">
         <is>
@@ -4732,15 +4732,15 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Estadio</t>
+          <t>Villa del Lago</t>
         </is>
       </c>
       <c r="B108" s="2" t="n">
-        <v>45329</v>
+        <v>45970</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -4749,19 +4749,19 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="F108" t="n">
-        <v>73</v>
+        <v>156</v>
       </c>
       <c r="G108" t="n">
-        <v>0.5447761194029851</v>
+        <v>1.368421052631579</v>
       </c>
       <c r="H108" t="n">
-        <v>71</v>
+        <v>169</v>
       </c>
       <c r="I108" t="n">
-        <v>6.183688406777747e-129</v>
+        <v>2.990939588867938e-47</v>
       </c>
       <c r="J108" t="inlineStr">
         <is>
@@ -4772,36 +4772,36 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Vipasa</t>
+          <t>Álamos</t>
         </is>
       </c>
       <c r="B109" s="2" t="n">
-        <v>45329</v>
+        <v>45970</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>09:00-12:00</t>
+          <t>21:00-23:00</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>182</v>
+        <v>120</v>
       </c>
       <c r="F109" t="n">
-        <v>197</v>
+        <v>107</v>
       </c>
       <c r="G109" t="n">
-        <v>1.082417582417582</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="H109" t="n">
-        <v>190</v>
+        <v>109</v>
       </c>
       <c r="I109" t="n">
-        <v>2.377155301478148e-81</v>
+        <v>0</v>
       </c>
       <c r="J109" t="inlineStr">
         <is>
@@ -4812,36 +4812,36 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Mariano Ramos</t>
+          <t>Capri</t>
         </is>
       </c>
       <c r="B110" s="2" t="n">
-        <v>45330</v>
+        <v>45970</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>09:00-12:00</t>
+          <t>05:30-09:00</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="F110" t="n">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="G110" t="n">
-        <v>1.10828025477707</v>
+        <v>1.039325842696629</v>
       </c>
       <c r="H110" t="n">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="I110" t="n">
-        <v>1.031569762255451e-139</v>
+        <v>5.023734979607917e-96</v>
       </c>
       <c r="J110" t="inlineStr">
         <is>
@@ -4852,36 +4852,36 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Refugio</t>
+          <t>Popular</t>
         </is>
       </c>
       <c r="B111" s="2" t="n">
-        <v>45330</v>
+        <v>45970</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>09:00-12:00</t>
+          <t>12:00-15:00</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="F111" t="n">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="G111" t="n">
-        <v>0.7815126050420168</v>
+        <v>0.4418604651162791</v>
       </c>
       <c r="H111" t="n">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="I111" t="n">
-        <v>6.989902912055717e-204</v>
+        <v>0</v>
       </c>
       <c r="J111" t="inlineStr">
         <is>
@@ -4892,36 +4892,36 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Versalles</t>
+          <t>Salomia</t>
         </is>
       </c>
       <c r="B112" s="2" t="n">
-        <v>45330</v>
+        <v>45970</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>15:00-18:00</t>
+          <t>12:00-15:00</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>120</v>
+        <v>183</v>
       </c>
       <c r="F112" t="n">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="G112" t="n">
-        <v>0.6166666666666667</v>
+        <v>0.7814207650273224</v>
       </c>
       <c r="H112" t="n">
-        <v>72</v>
+        <v>140</v>
       </c>
       <c r="I112" t="n">
-        <v>8.363521150805551e-266</v>
+        <v>1.008907238139394e-239</v>
       </c>
       <c r="J112" t="inlineStr">
         <is>
@@ -4932,36 +4932,36 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Salomia</t>
+          <t>Meléndez</t>
         </is>
       </c>
       <c r="B113" s="2" t="n">
-        <v>45330</v>
+        <v>45970</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>05:30-09:00</t>
+          <t>15:00-18:00</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="F113" t="n">
-        <v>65</v>
+        <v>139</v>
       </c>
       <c r="G113" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.8424242424242424</v>
       </c>
       <c r="H113" t="n">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="I113" t="n">
-        <v>2.169535128173737e-234</v>
+        <v>2.763854507283878e-180</v>
       </c>
       <c r="J113" t="inlineStr">
         <is>
@@ -4972,36 +4972,36 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Chiminangos</t>
+          <t>Manzana del Saber</t>
         </is>
       </c>
       <c r="B114" s="2" t="n">
-        <v>45330</v>
+        <v>45970</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>05:30-09:00</t>
+          <t>18:00-21:00</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>80</v>
+        <v>151</v>
       </c>
       <c r="F114" t="n">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="G114" t="n">
-        <v>0.5375</v>
+        <v>0.7218543046357616</v>
       </c>
       <c r="H114" t="n">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="I114" t="n">
-        <v>1.152187610734058e-270</v>
+        <v>1.000780874994214e-261</v>
       </c>
       <c r="J114" t="inlineStr">
         <is>
@@ -5012,36 +5012,36 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Manzanares</t>
+          <t>Terminal Menga</t>
         </is>
       </c>
       <c r="B115" s="2" t="n">
-        <v>45330</v>
+        <v>45970</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>15:00-18:00</t>
+          <t>09:00-12:00</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="F115" t="n">
-        <v>135</v>
+        <v>132.1623111474071</v>
       </c>
       <c r="G115" t="n">
-        <v>1.08</v>
+        <v>0.9373213556553694</v>
       </c>
       <c r="H115" t="n">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="I115" t="n">
-        <v>8.119239934237581e-175</v>
+        <v>1.401966984286541e-131</v>
       </c>
       <c r="J115" t="inlineStr">
         <is>
@@ -5052,36 +5052,36 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Manzana del Saber</t>
+          <t>Calipso</t>
         </is>
       </c>
       <c r="B116" s="2" t="n">
-        <v>45330</v>
+        <v>45970</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>12:00-15:00</t>
+          <t>09:00-12:00</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="F116" t="n">
-        <v>221</v>
+        <v>96</v>
       </c>
       <c r="G116" t="n">
-        <v>1.227777777777778</v>
+        <v>0.64</v>
       </c>
       <c r="H116" t="n">
-        <v>211</v>
+        <v>97</v>
       </c>
       <c r="I116" t="n">
-        <v>2.981383504182888e-58</v>
+        <v>4.547991215429518e-229</v>
       </c>
       <c r="J116" t="inlineStr">
         <is>
@@ -5092,15 +5092,15 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Fátima</t>
+          <t>Terminal Andrés Sanín</t>
         </is>
       </c>
       <c r="B117" s="2" t="n">
-        <v>45330</v>
+        <v>45970</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -5109,19 +5109,19 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>169</v>
+        <v>98</v>
       </c>
       <c r="F117" t="n">
-        <v>141</v>
+        <v>60</v>
       </c>
       <c r="G117" t="n">
-        <v>0.834319526627219</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="H117" t="n">
-        <v>142</v>
+        <v>56</v>
       </c>
       <c r="I117" t="n">
-        <v>1.638457788887654e-193</v>
+        <v>3.607271063366332e-238</v>
       </c>
       <c r="J117" t="inlineStr">
         <is>
@@ -5132,36 +5132,36 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Lleras Restrepo</t>
+          <t>Las Américas</t>
         </is>
       </c>
       <c r="B118" s="2" t="n">
-        <v>45330</v>
+        <v>45970</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>09:00-12:00</t>
+          <t>05:30-09:00</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F118" t="n">
-        <v>195</v>
+        <v>74</v>
       </c>
       <c r="G118" t="n">
-        <v>1.031746031746032</v>
+        <v>0.4043715846994536</v>
       </c>
       <c r="H118" t="n">
-        <v>188</v>
+        <v>89</v>
       </c>
       <c r="I118" t="n">
-        <v>9.64014291358226e-155</v>
+        <v>3.201899271990151e-304</v>
       </c>
       <c r="J118" t="inlineStr">
         <is>
@@ -5172,36 +5172,36 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Cañaverales</t>
+          <t>Terminal Simón Bolívar</t>
         </is>
       </c>
       <c r="B119" s="2" t="n">
-        <v>45330</v>
+        <v>45970</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>05:30-09:00</t>
+          <t>09:00-12:00</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>115</v>
+        <v>185</v>
       </c>
       <c r="F119" t="n">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="G119" t="n">
-        <v>0.8521739130434782</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="H119" t="n">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="I119" t="n">
-        <v>7.172028370148099e-209</v>
+        <v>3.965857392350208e-297</v>
       </c>
       <c r="J119" t="inlineStr">
         <is>
@@ -5212,36 +5212,36 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Terminal Andrés Sanín</t>
+          <t>Manzanares</t>
         </is>
       </c>
       <c r="B120" s="2" t="n">
-        <v>45330</v>
+        <v>45970</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>09:00-12:00</t>
+          <t>21:00-23:00</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>166</v>
+        <v>96</v>
       </c>
       <c r="F120" t="n">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="G120" t="n">
-        <v>0.6024096385542169</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="H120" t="n">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="I120" t="n">
-        <v>4.710961153494479e-239</v>
+        <v>0</v>
       </c>
       <c r="J120" t="inlineStr">
         <is>
@@ -5252,36 +5252,36 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Popular</t>
+          <t>San Bosco</t>
         </is>
       </c>
       <c r="B121" s="2" t="n">
-        <v>45330</v>
+        <v>45970</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Desconocida</t>
+          <t>15:00-18:00</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="F121" t="n">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="G121" t="n">
-        <v>0.6029411764705882</v>
+        <v>1.111111111111111</v>
       </c>
       <c r="H121" t="n">
-        <v>82</v>
+        <v>156</v>
       </c>
       <c r="I121" t="n">
-        <v>5.370350261099287e-303</v>
+        <v>3.478967216104065e-92</v>
       </c>
       <c r="J121" t="inlineStr">
         <is>
@@ -5292,36 +5292,36 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Terminal Menga</t>
+          <t>Flora Industrial</t>
         </is>
       </c>
       <c r="B122" s="2" t="n">
-        <v>45330</v>
+        <v>45971</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>09:00-12:00</t>
+          <t>15:00-18:00</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="F122" t="n">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G122" t="n">
-        <v>0.8125</v>
+        <v>0.4728682170542636</v>
       </c>
       <c r="H122" t="n">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="I122" t="n">
-        <v>8.504008711110083e-198</v>
+        <v>6.586130532541005e-189</v>
       </c>
       <c r="J122" t="inlineStr">
         <is>
@@ -5332,36 +5332,36 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Capri</t>
+          <t>Piloto</t>
         </is>
       </c>
       <c r="B123" s="2" t="n">
-        <v>45330</v>
+        <v>45971</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>21:00-23:00</t>
+          <t>15:00-18:00</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="F123" t="n">
-        <v>109</v>
+        <v>94.00000000000001</v>
       </c>
       <c r="G123" t="n">
-        <v>0.8195488721804511</v>
+        <v>1.032967032967033</v>
       </c>
       <c r="H123" t="n">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="I123" t="n">
-        <v>1.158049522389278e-211</v>
+        <v>2.950058102396563e-05</v>
       </c>
       <c r="J123" t="inlineStr">
         <is>
@@ -5372,15 +5372,15 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Prados del Norte</t>
+          <t>Terminal Paso del Comercio</t>
         </is>
       </c>
       <c r="B124" s="2" t="n">
-        <v>45330</v>
+        <v>45971</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -5389,19 +5389,19 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>94</v>
+        <v>157</v>
       </c>
       <c r="F124" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G124" t="n">
-        <v>0.7553191489361702</v>
+        <v>0.4267515923566879</v>
       </c>
       <c r="H124" t="n">
         <v>73</v>
       </c>
       <c r="I124" t="n">
-        <v>4.785008816090919e-256</v>
+        <v>6.166032215705889e-246</v>
       </c>
       <c r="J124" t="inlineStr">
         <is>
@@ -5412,36 +5412,36 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Meléndez</t>
+          <t>Cañaverales</t>
         </is>
       </c>
       <c r="B125" s="2" t="n">
-        <v>45330</v>
+        <v>45971</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>21:00-23:00</t>
+          <t>Desconocida</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F125" t="n">
-        <v>55.00000000000001</v>
+        <v>57</v>
       </c>
       <c r="G125" t="n">
-        <v>0.55</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="H125" t="n">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="I125" t="n">
-        <v>1.352204602826069e-264</v>
+        <v>1.560157987812536e-161</v>
       </c>
       <c r="J125" t="inlineStr">
         <is>
@@ -5452,36 +5452,36 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Piloto</t>
+          <t>Unidad Deportiva</t>
         </is>
       </c>
       <c r="B126" s="2" t="n">
-        <v>45330</v>
+        <v>45971</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>12:00-15:00</t>
+          <t>15:00-18:00</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>152</v>
+        <v>92</v>
       </c>
       <c r="F126" t="n">
-        <v>168</v>
+        <v>55</v>
       </c>
       <c r="G126" t="n">
-        <v>1.105263157894737</v>
+        <v>0.5978260869565217</v>
       </c>
       <c r="H126" t="n">
-        <v>171</v>
+        <v>49</v>
       </c>
       <c r="I126" t="n">
-        <v>2.603742461927147e-82</v>
+        <v>6.182416788514956e-148</v>
       </c>
       <c r="J126" t="inlineStr">
         <is>
@@ -5492,36 +5492,36 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Río Cali</t>
+          <t>Centro</t>
         </is>
       </c>
       <c r="B127" s="2" t="n">
-        <v>45330</v>
+        <v>45971</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>05:30-09:00</t>
+          <t>18:00-21:00</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>132</v>
+        <v>123.5</v>
       </c>
       <c r="F127" t="n">
-        <v>116</v>
+        <v>92.68889504804139</v>
       </c>
       <c r="G127" t="n">
-        <v>0.8787878787878788</v>
+        <v>0.7505173688100517</v>
       </c>
       <c r="H127" t="n">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="I127" t="n">
-        <v>1.207708116621069e-203</v>
+        <v>8.908499505779081e-140</v>
       </c>
       <c r="J127" t="inlineStr">
         <is>
@@ -5532,36 +5532,36 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Plaza de Toros</t>
+          <t>Prados del Norte</t>
         </is>
       </c>
       <c r="B128" s="2" t="n">
-        <v>45330</v>
+        <v>45971</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>21:00-23:00</t>
+          <t>09:00-12:00</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="F128" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G128" t="n">
-        <v>0.5795454545454546</v>
+        <v>0.5132743362831859</v>
       </c>
       <c r="H128" t="n">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="I128" t="n">
-        <v>8.571045109151255e-259</v>
+        <v>4.536916721575284e-158</v>
       </c>
       <c r="J128" t="inlineStr">
         <is>
@@ -5572,36 +5572,36 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Las Américas</t>
+          <t>Torre de Cali</t>
         </is>
       </c>
       <c r="B129" s="2" t="n">
-        <v>45330</v>
+        <v>45971</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>15:00-18:00</t>
+          <t>09:00-12:00</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F129" t="n">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="G129" t="n">
-        <v>0.7254901960784313</v>
+        <v>0.6225165562913907</v>
       </c>
       <c r="H129" t="n">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="I129" t="n">
-        <v>1.961642308137806e-244</v>
+        <v>2.99414439762651e-122</v>
       </c>
       <c r="J129" t="inlineStr">
         <is>
@@ -5612,36 +5612,36 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Ciudad Modelo</t>
+          <t>Versalles</t>
         </is>
       </c>
       <c r="B130" s="2" t="n">
-        <v>45330</v>
+        <v>45971</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>15:00-18:00</t>
+          <t>12:00-15:00</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>196</v>
+        <v>104</v>
       </c>
       <c r="F130" t="n">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="G130" t="n">
-        <v>0.5663265306122449</v>
+        <v>0.6730769230769231</v>
       </c>
       <c r="H130" t="n">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="I130" t="n">
-        <v>1.088529699243832e-275</v>
+        <v>1.071572348588486e-162</v>
       </c>
       <c r="J130" t="inlineStr">
         <is>
@@ -5652,36 +5652,36 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Universidades</t>
+          <t>Villa del Sur</t>
         </is>
       </c>
       <c r="B131" s="2" t="n">
-        <v>45330</v>
+        <v>45971</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Desconocida</t>
+          <t>12:00-15:00</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="F131" t="n">
-        <v>61</v>
+        <v>93.63636363636364</v>
       </c>
       <c r="G131" t="n">
-        <v>0.5350877192982456</v>
+        <v>0.6242424242424243</v>
       </c>
       <c r="H131" t="n">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>1.041457921335919e-178</v>
       </c>
       <c r="J131" t="inlineStr">
         <is>
@@ -5692,15 +5692,15 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Flora Industrial</t>
+          <t>Plaza de Toros</t>
         </is>
       </c>
       <c r="B132" s="2" t="n">
-        <v>45330</v>
+        <v>45971</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -5709,19 +5709,19 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>195</v>
+        <v>126</v>
       </c>
       <c r="F132" t="n">
-        <v>233</v>
+        <v>78</v>
       </c>
       <c r="G132" t="n">
-        <v>1.194871794871795</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="H132" t="n">
-        <v>217</v>
+        <v>77</v>
       </c>
       <c r="I132" t="n">
-        <v>1.042126174168985e-122</v>
+        <v>2.181927694508619e-123</v>
       </c>
       <c r="J132" t="inlineStr">
         <is>
@@ -5732,36 +5732,36 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Terminal Simón Bolívar</t>
+          <t>Lleras Restrepo</t>
         </is>
       </c>
       <c r="B133" s="2" t="n">
-        <v>45330</v>
+        <v>45971</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>21:00-23:00</t>
+          <t>18:00-21:00</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="F133" t="n">
-        <v>62.99999999999999</v>
+        <v>41</v>
       </c>
       <c r="G133" t="n">
-        <v>0.6057692307692307</v>
+        <v>0.4939759036144578</v>
       </c>
       <c r="H133" t="n">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="I133" t="n">
-        <v>1.209846475959321e-253</v>
+        <v>6.795707734325863e-224</v>
       </c>
       <c r="J133" t="inlineStr">
         <is>
@@ -5772,36 +5772,36 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Unidad Deportiva</t>
+          <t>Fátima</t>
         </is>
       </c>
       <c r="B134" s="2" t="n">
-        <v>45330</v>
+        <v>45971</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>21:00-23:00</t>
+          <t>12:00-15:00</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="F134" t="n">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="G134" t="n">
-        <v>1.019480519480519</v>
+        <v>1</v>
       </c>
       <c r="H134" t="n">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="I134" t="n">
-        <v>2.11506088920338e-172</v>
+        <v>1.679074029036882e-55</v>
       </c>
       <c r="J134" t="inlineStr">
         <is>
@@ -5812,36 +5812,36 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>San Bosco</t>
+          <t>Mariano Ramos</t>
         </is>
       </c>
       <c r="B135" s="2" t="n">
-        <v>45330</v>
+        <v>45971</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>05:30-09:00</t>
+          <t>12:00-15:00</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="F135" t="n">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="G135" t="n">
-        <v>0.7204968944099379</v>
+        <v>0.4011627906976744</v>
       </c>
       <c r="H135" t="n">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="I135" t="n">
-        <v>9.943866328209273e-235</v>
+        <v>7.445544641314905e-252</v>
       </c>
       <c r="J135" t="inlineStr">
         <is>
@@ -5852,15 +5852,15 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Villa del Lago</t>
+          <t>San Nicolás</t>
         </is>
       </c>
       <c r="B136" s="2" t="n">
-        <v>45330</v>
+        <v>45971</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -5869,19 +5869,19 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>96</v>
+        <v>154</v>
       </c>
       <c r="F136" t="n">
-        <v>80</v>
+        <v>103.9056571815718</v>
       </c>
       <c r="G136" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.6747120596205962</v>
       </c>
       <c r="H136" t="n">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="I136" t="n">
-        <v>2.953424541072308e-223</v>
+        <v>1.003128232654353e-122</v>
       </c>
       <c r="J136" t="inlineStr">
         <is>
@@ -5892,76 +5892,76 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Torre de Cali</t>
+          <t>Chiminangos</t>
         </is>
       </c>
       <c r="B137" s="2" t="n">
-        <v>45330</v>
+        <v>45971</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>15:00-18:00</t>
+          <t>18:00-21:00</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="F137" t="n">
-        <v>87.99999999999999</v>
+        <v>99</v>
       </c>
       <c r="G137" t="n">
-        <v>0.6376811594202898</v>
+        <v>1.192771084337349</v>
       </c>
       <c r="H137" t="n">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="I137" t="n">
-        <v>1.119726918776664e-261</v>
+        <v>0.9999989052911487</v>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Estable</t>
+          <t>Colapsará</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Centro</t>
+          <t>Ciudad Modelo</t>
         </is>
       </c>
       <c r="B138" s="2" t="n">
-        <v>45330</v>
+        <v>45971</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>12:00-15:00</t>
+          <t>15:00-18:00</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="F138" t="n">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="G138" t="n">
-        <v>0.7115384615384616</v>
+        <v>0.8865248226950354</v>
       </c>
       <c r="H138" t="n">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="I138" t="n">
-        <v>1.25277863546101e-159</v>
+        <v>2.836607566931103e-53</v>
       </c>
       <c r="J138" t="inlineStr">
         <is>
@@ -5972,36 +5972,36 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Calipso</t>
+          <t>Plaza de Caycedo</t>
         </is>
       </c>
       <c r="B139" s="2" t="n">
-        <v>45330</v>
+        <v>45971</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>12:00-15:00</t>
+          <t>05:30-09:00</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>167</v>
+        <v>88</v>
       </c>
       <c r="F139" t="n">
-        <v>92.99999999999999</v>
+        <v>47</v>
       </c>
       <c r="G139" t="n">
-        <v>0.5568862275449101</v>
+        <v>0.5340909090909091</v>
       </c>
       <c r="H139" t="n">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="I139" t="n">
-        <v>5.34598301365923e-190</v>
+        <v>3.893003374015414e-149</v>
       </c>
       <c r="J139" t="inlineStr">
         <is>
@@ -6012,36 +6012,36 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Univalle</t>
+          <t>Universidades</t>
         </is>
       </c>
       <c r="B140" s="2" t="n">
-        <v>45330</v>
+        <v>45971</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>21:00-23:00</t>
+          <t>05:30-09:00</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>112</v>
+        <v>198</v>
       </c>
       <c r="F140" t="n">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="G140" t="n">
-        <v>0.8928571428571429</v>
+        <v>0.6616161616161617</v>
       </c>
       <c r="H140" t="n">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="I140" t="n">
-        <v>2.881678795368065e-197</v>
+        <v>2.538830483027684e-107</v>
       </c>
       <c r="J140" t="inlineStr">
         <is>
@@ -6052,36 +6052,36 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Álamos</t>
+          <t>Terminal Aguablanca</t>
         </is>
       </c>
       <c r="B141" s="2" t="n">
-        <v>45330</v>
+        <v>45971</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>12:00-15:00</t>
+          <t>18:00-21:00</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="F141" t="n">
-        <v>145</v>
+        <v>65</v>
       </c>
       <c r="G141" t="n">
-        <v>1.02112676056338</v>
+        <v>0.6701030927835051</v>
       </c>
       <c r="H141" t="n">
-        <v>150</v>
+        <v>63</v>
       </c>
       <c r="I141" t="n">
-        <v>7.82177308558082e-99</v>
+        <v>3.82567787743647e-166</v>
       </c>
       <c r="J141" t="inlineStr">
         <is>
@@ -6092,15 +6092,15 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Terminal Paso del Comercio</t>
+          <t>Refugio</t>
         </is>
       </c>
       <c r="B142" s="2" t="n">
-        <v>45330</v>
+        <v>45971</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -6109,19 +6109,19 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>197</v>
+        <v>146</v>
       </c>
       <c r="F142" t="n">
-        <v>165</v>
+        <v>114</v>
       </c>
       <c r="G142" t="n">
-        <v>0.8375634517766497</v>
+        <v>0.7808219178082192</v>
       </c>
       <c r="H142" t="n">
-        <v>164</v>
+        <v>113</v>
       </c>
       <c r="I142" t="n">
-        <v>1.999934535903386e-222</v>
+        <v>6.220079908422875e-88</v>
       </c>
       <c r="J142" t="inlineStr">
         <is>
@@ -6132,36 +6132,36 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Terminal Aguablanca</t>
+          <t>Río Cali</t>
         </is>
       </c>
       <c r="B143" s="2" t="n">
-        <v>45330</v>
+        <v>45971</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>12:00-15:00</t>
+          <t>21:00-23:00</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>135</v>
+        <v>120.5</v>
       </c>
       <c r="F143" t="n">
-        <v>74</v>
+        <v>101.4664772727273</v>
       </c>
       <c r="G143" t="n">
-        <v>0.5481481481481482</v>
+        <v>0.8420454545454545</v>
       </c>
       <c r="H143" t="n">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="I143" t="n">
-        <v>1.028220892830366e-191</v>
+        <v>2.092549822165078e-259</v>
       </c>
       <c r="J143" t="inlineStr">
         <is>
@@ -6172,36 +6172,36 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Estadio</t>
+          <t>Santa Rosa</t>
         </is>
       </c>
       <c r="B144" s="2" t="n">
-        <v>45330</v>
+        <v>45971</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>12:00-15:00</t>
+          <t>18:00-21:00</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>134</v>
+        <v>135.5</v>
       </c>
       <c r="F144" t="n">
-        <v>73</v>
+        <v>77.5827367077367</v>
       </c>
       <c r="G144" t="n">
-        <v>0.5447761194029851</v>
+        <v>0.5725663225663226</v>
       </c>
       <c r="H144" t="n">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="I144" t="n">
-        <v>2.238226159535117e-192</v>
+        <v>3.993052447868158e-198</v>
       </c>
       <c r="J144" t="inlineStr">
         <is>
@@ -6216,32 +6216,32 @@
         </is>
       </c>
       <c r="B145" s="2" t="n">
-        <v>45330</v>
+        <v>45971</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>09:00-12:00</t>
+          <t>18:00-21:00</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="F145" t="n">
-        <v>197</v>
+        <v>151</v>
       </c>
       <c r="G145" t="n">
-        <v>1.082417582417582</v>
+        <v>0.8988095238095238</v>
       </c>
       <c r="H145" t="n">
-        <v>190</v>
+        <v>145</v>
       </c>
       <c r="I145" t="n">
-        <v>8.604267924001833e-145</v>
+        <v>3.7447982346817e-91</v>
       </c>
       <c r="J145" t="inlineStr">
         <is>
@@ -6252,76 +6252,76 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Mariano Ramos</t>
+          <t>Univalle</t>
         </is>
       </c>
       <c r="B146" s="2" t="n">
-        <v>45331</v>
+        <v>45971</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>09:00-12:00</t>
+          <t>12:00-15:00</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="F146" t="n">
-        <v>174</v>
+        <v>111</v>
       </c>
       <c r="G146" t="n">
-        <v>1.10828025477707</v>
+        <v>0.8102189781021898</v>
       </c>
       <c r="H146" t="n">
-        <v>175</v>
+        <v>110</v>
       </c>
       <c r="I146" t="n">
-        <v>0.9999999843015661</v>
+        <v>9.945597359607651e-118</v>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Colapsará</t>
+          <t>Estable</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Refugio</t>
+          <t>Estadio</t>
         </is>
       </c>
       <c r="B147" s="2" t="n">
-        <v>45331</v>
+        <v>45971</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>09:00-12:00</t>
+          <t>18:00-21:00</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>119</v>
+        <v>179</v>
       </c>
       <c r="F147" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G147" t="n">
-        <v>0.7815126050420168</v>
+        <v>0.5083798882681564</v>
       </c>
       <c r="H147" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I147" t="n">
-        <v>4.316345570807736e-57</v>
+        <v>3.590606591769186e-219</v>
       </c>
       <c r="J147" t="inlineStr">
         <is>
@@ -6332,76 +6332,76 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Versalles</t>
+          <t>Villa del Lago</t>
         </is>
       </c>
       <c r="B148" s="2" t="n">
-        <v>45331</v>
+        <v>45971</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>15:00-18:00</t>
+          <t>12:00-15:00</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F148" t="n">
-        <v>74</v>
+        <v>156</v>
       </c>
       <c r="G148" t="n">
-        <v>0.6166666666666667</v>
+        <v>1.368421052631579</v>
       </c>
       <c r="H148" t="n">
-        <v>72</v>
+        <v>169</v>
       </c>
       <c r="I148" t="n">
-        <v>5.164570657107949e-119</v>
+        <v>1</v>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Estable</t>
+          <t>Colapsará</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Salomia</t>
+          <t>Álamos</t>
         </is>
       </c>
       <c r="B149" s="2" t="n">
-        <v>45331</v>
+        <v>45971</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>05:30-09:00</t>
+          <t>21:00-23:00</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="F149" t="n">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="G149" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="H149" t="n">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="I149" t="n">
-        <v>1.339712934360329e-87</v>
+        <v>3.899523810437515e-243</v>
       </c>
       <c r="J149" t="inlineStr">
         <is>
@@ -6412,15 +6412,15 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Chiminangos</t>
+          <t>Capri</t>
         </is>
       </c>
       <c r="B150" s="2" t="n">
-        <v>45331</v>
+        <v>45971</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -6429,59 +6429,59 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="F150" t="n">
-        <v>43</v>
+        <v>185</v>
       </c>
       <c r="G150" t="n">
-        <v>0.5375</v>
+        <v>1.039325842696629</v>
       </c>
       <c r="H150" t="n">
-        <v>29</v>
+        <v>171</v>
       </c>
       <c r="I150" t="n">
-        <v>7.114891226534763e-124</v>
+        <v>1</v>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Estable</t>
+          <t>Colapsará</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Manzanares</t>
+          <t>Popular</t>
         </is>
       </c>
       <c r="B151" s="2" t="n">
-        <v>45331</v>
+        <v>45971</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>15:00-18:00</t>
+          <t>12:00-15:00</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F151" t="n">
-        <v>135</v>
+        <v>57</v>
       </c>
       <c r="G151" t="n">
-        <v>1.08</v>
+        <v>0.4418604651162791</v>
       </c>
       <c r="H151" t="n">
-        <v>146</v>
+        <v>55</v>
       </c>
       <c r="I151" t="n">
-        <v>5.013724191795051e-28</v>
+        <v>1.645458355211268e-238</v>
       </c>
       <c r="J151" t="inlineStr">
         <is>
@@ -6492,15 +6492,15 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Manzana del Saber</t>
+          <t>Salomia</t>
         </is>
       </c>
       <c r="B152" s="2" t="n">
-        <v>45331</v>
+        <v>45971</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -6509,59 +6509,59 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F152" t="n">
-        <v>221</v>
+        <v>143</v>
       </c>
       <c r="G152" t="n">
-        <v>1.227777777777778</v>
+        <v>0.7814207650273224</v>
       </c>
       <c r="H152" t="n">
-        <v>211</v>
+        <v>140</v>
       </c>
       <c r="I152" t="n">
-        <v>1</v>
+        <v>3.588918442451015e-127</v>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Colapsará</t>
+          <t>Estable</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Fátima</t>
+          <t>Meléndez</t>
         </is>
       </c>
       <c r="B153" s="2" t="n">
-        <v>45331</v>
+        <v>45971</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>09:00-12:00</t>
+          <t>15:00-18:00</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F153" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G153" t="n">
-        <v>0.834319526627219</v>
+        <v>0.8424242424242424</v>
       </c>
       <c r="H153" t="n">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I153" t="n">
-        <v>1.011766559421461e-46</v>
+        <v>9.831675339882065e-68</v>
       </c>
       <c r="J153" t="inlineStr">
         <is>
@@ -6572,36 +6572,36 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Lleras Restrepo</t>
+          <t>Manzana del Saber</t>
         </is>
       </c>
       <c r="B154" s="2" t="n">
-        <v>45331</v>
+        <v>45971</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>09:00-12:00</t>
+          <t>18:00-21:00</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>189</v>
+        <v>151</v>
       </c>
       <c r="F154" t="n">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c r="G154" t="n">
-        <v>1.031746031746032</v>
+        <v>0.7218543046357616</v>
       </c>
       <c r="H154" t="n">
-        <v>188</v>
+        <v>109</v>
       </c>
       <c r="I154" t="n">
-        <v>5.952898947740097e-08</v>
+        <v>3.560011072715441e-149</v>
       </c>
       <c r="J154" t="inlineStr">
         <is>
@@ -6612,36 +6612,36 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Cañaverales</t>
+          <t>Terminal Menga</t>
         </is>
       </c>
       <c r="B155" s="2" t="n">
-        <v>45331</v>
+        <v>45971</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>05:30-09:00</t>
+          <t>09:00-12:00</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="F155" t="n">
-        <v>98</v>
+        <v>132.1623111474071</v>
       </c>
       <c r="G155" t="n">
-        <v>0.8521739130434782</v>
+        <v>0.9373213556553694</v>
       </c>
       <c r="H155" t="n">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="I155" t="n">
-        <v>4.428810139237227e-62</v>
+        <v>4.987123667476969e-19</v>
       </c>
       <c r="J155" t="inlineStr">
         <is>
@@ -6652,15 +6652,15 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Terminal Andrés Sanín</t>
+          <t>Calipso</t>
         </is>
       </c>
       <c r="B156" s="2" t="n">
-        <v>45331</v>
+        <v>45971</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -6669,19 +6669,19 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="F156" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G156" t="n">
-        <v>0.6024096385542169</v>
+        <v>0.64</v>
       </c>
       <c r="H156" t="n">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="I156" t="n">
-        <v>2.909072781835387e-92</v>
+        <v>1.617826588226444e-116</v>
       </c>
       <c r="J156" t="inlineStr">
         <is>
@@ -6692,36 +6692,36 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Popular</t>
+          <t>Terminal Andrés Sanín</t>
         </is>
       </c>
       <c r="B157" s="2" t="n">
-        <v>45331</v>
+        <v>45971</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Desconocida</t>
+          <t>09:00-12:00</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="F157" t="n">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="G157" t="n">
-        <v>0.6029411764705882</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="H157" t="n">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="I157" t="n">
-        <v>3.316253151843294e-156</v>
+        <v>1.283190481427401e-125</v>
       </c>
       <c r="J157" t="inlineStr">
         <is>
@@ -6732,36 +6732,36 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Terminal Menga</t>
+          <t>Las Américas</t>
         </is>
       </c>
       <c r="B158" s="2" t="n">
-        <v>45331</v>
+        <v>45971</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>09:00-12:00</t>
+          <t>05:30-09:00</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>80</v>
+        <v>183</v>
       </c>
       <c r="F158" t="n">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="G158" t="n">
-        <v>0.8125</v>
+        <v>0.4043715846994536</v>
       </c>
       <c r="H158" t="n">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="I158" t="n">
-        <v>5.251323343991223e-51</v>
+        <v>1.138990277174412e-191</v>
       </c>
       <c r="J158" t="inlineStr">
         <is>
@@ -6772,36 +6772,36 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Capri</t>
+          <t>Terminal Simón Bolívar</t>
         </is>
       </c>
       <c r="B159" s="2" t="n">
-        <v>45331</v>
+        <v>45971</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>21:00-23:00</t>
+          <t>09:00-12:00</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>133</v>
+        <v>185</v>
       </c>
       <c r="F159" t="n">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="G159" t="n">
-        <v>0.8195488721804511</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="H159" t="n">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="I159" t="n">
-        <v>7.151089206289009e-65</v>
+        <v>1.41074800511746e-184</v>
       </c>
       <c r="J159" t="inlineStr">
         <is>
@@ -6812,36 +6812,36 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Prados del Norte</t>
+          <t>Manzanares</t>
         </is>
       </c>
       <c r="B160" s="2" t="n">
-        <v>45331</v>
+        <v>45971</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>18:00-21:00</t>
+          <t>21:00-23:00</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F160" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G160" t="n">
-        <v>0.7553191489361702</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="H160" t="n">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I160" t="n">
-        <v>2.954798066506446e-109</v>
+        <v>6.337791749072382e-276</v>
       </c>
       <c r="J160" t="inlineStr">
         <is>
@@ -6852,156 +6852,156 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Meléndez</t>
+          <t>San Bosco</t>
         </is>
       </c>
       <c r="B161" s="2" t="n">
-        <v>45331</v>
+        <v>45971</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>21:00-23:00</t>
+          <t>15:00-18:00</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="F161" t="n">
-        <v>55.00000000000001</v>
+        <v>160</v>
       </c>
       <c r="G161" t="n">
-        <v>0.55</v>
+        <v>1.111111111111111</v>
       </c>
       <c r="H161" t="n">
-        <v>46</v>
+        <v>156</v>
       </c>
       <c r="I161" t="n">
-        <v>8.350019194354272e-118</v>
+        <v>1</v>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Estable</t>
+          <t>Colapsará</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Piloto</t>
+          <t>Flora Industrial</t>
         </is>
       </c>
       <c r="B162" s="2" t="n">
-        <v>45331</v>
+        <v>45972</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>12:00-15:00</t>
+          <t>15:00-18:00</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="F162" t="n">
-        <v>168</v>
+        <v>61</v>
       </c>
       <c r="G162" t="n">
-        <v>1.105263157894737</v>
+        <v>0.4728682170542636</v>
       </c>
       <c r="H162" t="n">
-        <v>171</v>
+        <v>59</v>
       </c>
       <c r="I162" t="n">
-        <v>1</v>
+        <v>1.00009381516368e-114</v>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Colapsará</t>
+          <t>Estable</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Río Cali</t>
+          <t>Piloto</t>
         </is>
       </c>
       <c r="B163" s="2" t="n">
-        <v>45331</v>
+        <v>45972</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>05:30-09:00</t>
+          <t>15:00-18:00</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="F163" t="n">
-        <v>116</v>
+        <v>94.00000000000001</v>
       </c>
       <c r="G163" t="n">
-        <v>0.8787878787878788</v>
+        <v>1.032967032967033</v>
       </c>
       <c r="H163" t="n">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="I163" t="n">
-        <v>7.457736746264487e-57</v>
+        <v>1</v>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Estable</t>
+          <t>Colapsará</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Plaza de Toros</t>
+          <t>Terminal Paso del Comercio</t>
         </is>
       </c>
       <c r="B164" s="2" t="n">
-        <v>45331</v>
+        <v>45972</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>21:00-23:00</t>
+          <t>18:00-21:00</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>88</v>
+        <v>157</v>
       </c>
       <c r="F164" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="G164" t="n">
-        <v>0.5795454545454546</v>
+        <v>0.4267515923566879</v>
       </c>
       <c r="H164" t="n">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="I164" t="n">
-        <v>5.292719092031009e-112</v>
+        <v>9.363025303794439e-172</v>
       </c>
       <c r="J164" t="inlineStr">
         <is>
@@ -7012,36 +7012,36 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Las Américas</t>
+          <t>Cañaverales</t>
         </is>
       </c>
       <c r="B165" s="2" t="n">
-        <v>45331</v>
+        <v>45972</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>15:00-18:00</t>
+          <t>Desconocida</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>153</v>
+        <v>93</v>
       </c>
       <c r="F165" t="n">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="G165" t="n">
-        <v>0.7254901960784313</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="H165" t="n">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="I165" t="n">
-        <v>1.211336723094736e-97</v>
+        <v>2.369075964377508e-87</v>
       </c>
       <c r="J165" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Ciudad Modelo</t>
+          <t>Unidad Deportiva</t>
         </is>
       </c>
       <c r="B166" s="2" t="n">
-        <v>45331</v>
+        <v>45972</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>196</v>
+        <v>92</v>
       </c>
       <c r="F166" t="n">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="G166" t="n">
-        <v>0.5663265306122449</v>
+        <v>0.5978260869565217</v>
       </c>
       <c r="H166" t="n">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="I166" t="n">
-        <v>6.721796289788497e-129</v>
+        <v>9.387905026189344e-74</v>
       </c>
       <c r="J166" t="inlineStr">
         <is>
@@ -7092,36 +7092,36 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Universidades</t>
+          <t>Centro</t>
         </is>
       </c>
       <c r="B167" s="2" t="n">
-        <v>45331</v>
+        <v>45972</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Desconocida</t>
+          <t>18:00-21:00</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>114</v>
+        <v>123.5</v>
       </c>
       <c r="F167" t="n">
-        <v>61</v>
+        <v>92.68889504804139</v>
       </c>
       <c r="G167" t="n">
-        <v>0.5350877192982456</v>
+        <v>0.7505173688100517</v>
       </c>
       <c r="H167" t="n">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="I167" t="n">
-        <v>1.570069017013522e-169</v>
+        <v>1.352741980150412e-65</v>
       </c>
       <c r="J167" t="inlineStr">
         <is>
@@ -7132,15 +7132,15 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Flora Industrial</t>
+          <t>Prados del Norte</t>
         </is>
       </c>
       <c r="B168" s="2" t="n">
-        <v>45331</v>
+        <v>45972</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -7149,59 +7149,59 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>195</v>
+        <v>113</v>
       </c>
       <c r="F168" t="n">
-        <v>233</v>
+        <v>58</v>
       </c>
       <c r="G168" t="n">
-        <v>1.194871794871795</v>
+        <v>0.5132743362831859</v>
       </c>
       <c r="H168" t="n">
-        <v>217</v>
+        <v>53</v>
       </c>
       <c r="I168" t="n">
-        <v>1</v>
+        <v>6.889238424203669e-84</v>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Colapsará</t>
+          <t>Estable</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Terminal Simón Bolívar</t>
+          <t>Torre de Cali</t>
         </is>
       </c>
       <c r="B169" s="2" t="n">
-        <v>45331</v>
+        <v>45972</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>21:00-23:00</t>
+          <t>09:00-12:00</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>104</v>
+        <v>151</v>
       </c>
       <c r="F169" t="n">
-        <v>62.99999999999999</v>
+        <v>94</v>
       </c>
       <c r="G169" t="n">
-        <v>0.6057692307692307</v>
+        <v>0.6225165562913907</v>
       </c>
       <c r="H169" t="n">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="I169" t="n">
-        <v>7.470941361513495e-107</v>
+        <v>4.54656232362594e-48</v>
       </c>
       <c r="J169" t="inlineStr">
         <is>
@@ -7212,36 +7212,36 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Unidad Deportiva</t>
+          <t>Versalles</t>
         </is>
       </c>
       <c r="B170" s="2" t="n">
-        <v>45331</v>
+        <v>45972</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>21:00-23:00</t>
+          <t>12:00-15:00</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>154</v>
+        <v>104</v>
       </c>
       <c r="F170" t="n">
-        <v>157</v>
+        <v>70</v>
       </c>
       <c r="G170" t="n">
-        <v>1.019480519480519</v>
+        <v>0.6730769230769231</v>
       </c>
       <c r="H170" t="n">
-        <v>159</v>
+        <v>68</v>
       </c>
       <c r="I170" t="n">
-        <v>1.306074464261302e-25</v>
+        <v>1.627166168403178e-88</v>
       </c>
       <c r="J170" t="inlineStr">
         <is>
@@ -7252,36 +7252,36 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>San Bosco</t>
+          <t>Villa del Sur</t>
         </is>
       </c>
       <c r="B171" s="2" t="n">
-        <v>45331</v>
+        <v>45972</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>05:30-09:00</t>
+          <t>12:00-15:00</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="F171" t="n">
-        <v>116</v>
+        <v>93.63636363636364</v>
       </c>
       <c r="G171" t="n">
-        <v>0.7204968944099379</v>
+        <v>0.6242424242424243</v>
       </c>
       <c r="H171" t="n">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="I171" t="n">
-        <v>6.140452009490028e-88</v>
+        <v>1.581437872716227e-104</v>
       </c>
       <c r="J171" t="inlineStr">
         <is>
@@ -7292,36 +7292,36 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Villa del Lago</t>
+          <t>Plaza de Toros</t>
         </is>
       </c>
       <c r="B172" s="2" t="n">
-        <v>45331</v>
+        <v>45972</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>15:00-18:00</t>
+          <t>09:00-12:00</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="F172" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G172" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="H172" t="n">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="I172" t="n">
-        <v>1.823773677111565e-76</v>
+        <v>3.31322372314201e-49</v>
       </c>
       <c r="J172" t="inlineStr">
         <is>
@@ -7332,36 +7332,36 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Torre de Cali</t>
+          <t>Lleras Restrepo</t>
         </is>
       </c>
       <c r="B173" s="2" t="n">
-        <v>45331</v>
+        <v>45972</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>15:00-18:00</t>
+          <t>18:00-21:00</t>
         </is>
       </c>
       <c r="E173" t="n">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="F173" t="n">
-        <v>87.99999999999999</v>
+        <v>41</v>
       </c>
       <c r="G173" t="n">
-        <v>0.6376811594202898</v>
+        <v>0.4939759036144578</v>
       </c>
       <c r="H173" t="n">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="I173" t="n">
-        <v>6.914442714276142e-115</v>
+        <v>1.031917791665324e-149</v>
       </c>
       <c r="J173" t="inlineStr">
         <is>
@@ -7372,15 +7372,15 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Centro</t>
+          <t>Fátima</t>
         </is>
       </c>
       <c r="B174" s="2" t="n">
-        <v>45331</v>
+        <v>45972</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -7389,38 +7389,38 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="F174" t="n">
-        <v>74</v>
+        <v>145</v>
       </c>
       <c r="G174" t="n">
-        <v>0.7115384615384616</v>
+        <v>1</v>
       </c>
       <c r="H174" t="n">
-        <v>74</v>
+        <v>142</v>
       </c>
       <c r="I174" t="n">
-        <v>7.736052392150029e-13</v>
+        <v>1</v>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Estable</t>
+          <t>Colapsará</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Calipso</t>
+          <t>Mariano Ramos</t>
         </is>
       </c>
       <c r="B175" s="2" t="n">
-        <v>45331</v>
+        <v>45972</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -7429,19 +7429,19 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="F175" t="n">
-        <v>92.99999999999999</v>
+        <v>69</v>
       </c>
       <c r="G175" t="n">
-        <v>0.5568862275449101</v>
+        <v>0.4011627906976744</v>
       </c>
       <c r="H175" t="n">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="I175" t="n">
-        <v>3.301206095841904e-43</v>
+        <v>1.130594528838053e-177</v>
       </c>
       <c r="J175" t="inlineStr">
         <is>
@@ -7452,36 +7452,36 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Univalle</t>
+          <t>San Nicolás</t>
         </is>
       </c>
       <c r="B176" s="2" t="n">
-        <v>45331</v>
+        <v>45972</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>21:00-23:00</t>
+          <t>15:00-18:00</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>112</v>
+        <v>154</v>
       </c>
       <c r="F176" t="n">
-        <v>100</v>
+        <v>103.9056571815718</v>
       </c>
       <c r="G176" t="n">
-        <v>0.8928571428571429</v>
+        <v>0.6747120596205962</v>
       </c>
       <c r="H176" t="n">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I176" t="n">
-        <v>1.779469852639117e-50</v>
+        <v>1.523234828609807e-48</v>
       </c>
       <c r="J176" t="inlineStr">
         <is>
@@ -7492,33 +7492,33 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Álamos</t>
+          <t>Chiminangos</t>
         </is>
       </c>
       <c r="B177" s="2" t="n">
-        <v>45331</v>
+        <v>45972</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>12:00-15:00</t>
+          <t>18:00-21:00</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="F177" t="n">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="G177" t="n">
-        <v>1.02112676056338</v>
+        <v>1.192771084337349</v>
       </c>
       <c r="H177" t="n">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="I177" t="n">
         <v>1</v>
@@ -7532,15 +7532,15 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Terminal Paso del Comercio</t>
+          <t>Ciudad Modelo</t>
         </is>
       </c>
       <c r="B178" s="2" t="n">
-        <v>45331</v>
+        <v>45972</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -7549,59 +7549,59 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>197</v>
+        <v>141</v>
       </c>
       <c r="F178" t="n">
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="G178" t="n">
-        <v>0.8375634517766497</v>
+        <v>0.8865248226950354</v>
       </c>
       <c r="H178" t="n">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="I178" t="n">
-        <v>1.234982614860524e-75</v>
+        <v>1</v>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Estable</t>
+          <t>Colapsará</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Terminal Aguablanca</t>
+          <t>Plaza de Caycedo</t>
         </is>
       </c>
       <c r="B179" s="2" t="n">
-        <v>45331</v>
+        <v>45972</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>12:00-15:00</t>
+          <t>05:30-09:00</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="F179" t="n">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="G179" t="n">
-        <v>0.5481481481481482</v>
+        <v>0.5340909090909091</v>
       </c>
       <c r="H179" t="n">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="I179" t="n">
-        <v>6.34938246270301e-45</v>
+        <v>5.91146588657446e-75</v>
       </c>
       <c r="J179" t="inlineStr">
         <is>
@@ -7612,36 +7612,36 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Estadio</t>
+          <t>Universidades</t>
         </is>
       </c>
       <c r="B180" s="2" t="n">
-        <v>45331</v>
+        <v>45972</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>12:00-15:00</t>
+          <t>05:30-09:00</t>
         </is>
       </c>
       <c r="E180" t="n">
+        <v>198</v>
+      </c>
+      <c r="F180" t="n">
+        <v>131</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0.6616161616161617</v>
+      </c>
+      <c r="H180" t="n">
         <v>134</v>
       </c>
-      <c r="F180" t="n">
-        <v>73</v>
-      </c>
-      <c r="G180" t="n">
-        <v>0.5447761194029851</v>
-      </c>
-      <c r="H180" t="n">
-        <v>71</v>
-      </c>
       <c r="I180" t="n">
-        <v>1.38213043753624e-45</v>
+        <v>3.855175130951134e-33</v>
       </c>
       <c r="J180" t="inlineStr">
         <is>
@@ -7652,38 +7652,838 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
+          <t>Terminal Aguablanca</t>
+        </is>
+      </c>
+      <c r="B181" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>18:00-21:00</t>
+        </is>
+      </c>
+      <c r="E181" t="n">
+        <v>97</v>
+      </c>
+      <c r="F181" t="n">
+        <v>65</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0.6701030927835051</v>
+      </c>
+      <c r="H181" t="n">
+        <v>63</v>
+      </c>
+      <c r="I181" t="n">
+        <v>5.809233153107134e-92</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>Estable</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Refugio</t>
+        </is>
+      </c>
+      <c r="B182" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>15:00-18:00</t>
+        </is>
+      </c>
+      <c r="E182" t="n">
+        <v>146</v>
+      </c>
+      <c r="F182" t="n">
+        <v>114</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0.7808219178082192</v>
+      </c>
+      <c r="H182" t="n">
+        <v>113</v>
+      </c>
+      <c r="I182" t="n">
+        <v>9.445095895840058e-14</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>Estable</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Río Cali</t>
+        </is>
+      </c>
+      <c r="B183" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>21:00-23:00</t>
+        </is>
+      </c>
+      <c r="E183" t="n">
+        <v>120.5</v>
+      </c>
+      <c r="F183" t="n">
+        <v>101.4664772727273</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0.8420454545454545</v>
+      </c>
+      <c r="H183" t="n">
+        <v>103</v>
+      </c>
+      <c r="I183" t="n">
+        <v>3.177504795462573e-185</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>Estable</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Santa Rosa</t>
+        </is>
+      </c>
+      <c r="B184" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>18:00-21:00</t>
+        </is>
+      </c>
+      <c r="E184" t="n">
+        <v>135.5</v>
+      </c>
+      <c r="F184" t="n">
+        <v>77.5827367077367</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0.5725663225663226</v>
+      </c>
+      <c r="H184" t="n">
+        <v>77</v>
+      </c>
+      <c r="I184" t="n">
+        <v>6.063388869999247e-124</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>Estable</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
           <t>Vipasa</t>
         </is>
       </c>
-      <c r="B181" s="2" t="n">
-        <v>45331</v>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>Friday</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
+      <c r="B185" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>18:00-21:00</t>
+        </is>
+      </c>
+      <c r="E185" t="n">
+        <v>168</v>
+      </c>
+      <c r="F185" t="n">
+        <v>151</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0.8988095238095238</v>
+      </c>
+      <c r="H185" t="n">
+        <v>145</v>
+      </c>
+      <c r="I185" t="n">
+        <v>5.686418656655612e-17</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>Estable</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Univalle</t>
+        </is>
+      </c>
+      <c r="B186" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>12:00-15:00</t>
+        </is>
+      </c>
+      <c r="E186" t="n">
+        <v>137</v>
+      </c>
+      <c r="F186" t="n">
+        <v>111</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0.8102189781021898</v>
+      </c>
+      <c r="H186" t="n">
+        <v>110</v>
+      </c>
+      <c r="I186" t="n">
+        <v>1.510223697861425e-43</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>Estable</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Estadio</t>
+        </is>
+      </c>
+      <c r="B187" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>18:00-21:00</t>
+        </is>
+      </c>
+      <c r="E187" t="n">
+        <v>179</v>
+      </c>
+      <c r="F187" t="n">
+        <v>91</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0.5083798882681564</v>
+      </c>
+      <c r="H187" t="n">
+        <v>100</v>
+      </c>
+      <c r="I187" t="n">
+        <v>5.452281012913781e-145</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>Estable</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Villa del Lago</t>
+        </is>
+      </c>
+      <c r="B188" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>12:00-15:00</t>
+        </is>
+      </c>
+      <c r="E188" t="n">
+        <v>114</v>
+      </c>
+      <c r="F188" t="n">
+        <v>156</v>
+      </c>
+      <c r="G188" t="n">
+        <v>1.368421052631579</v>
+      </c>
+      <c r="H188" t="n">
+        <v>169</v>
+      </c>
+      <c r="I188" t="n">
+        <v>1</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>Colapsará</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Álamos</t>
+        </is>
+      </c>
+      <c r="B189" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>21:00-23:00</t>
+        </is>
+      </c>
+      <c r="E189" t="n">
+        <v>120</v>
+      </c>
+      <c r="F189" t="n">
+        <v>107</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0.8916666666666667</v>
+      </c>
+      <c r="H189" t="n">
+        <v>109</v>
+      </c>
+      <c r="I189" t="n">
+        <v>5.921367069227278e-169</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>Estable</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Capri</t>
+        </is>
+      </c>
+      <c r="B190" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>05:30-09:00</t>
+        </is>
+      </c>
+      <c r="E190" t="n">
+        <v>178</v>
+      </c>
+      <c r="F190" t="n">
+        <v>185</v>
+      </c>
+      <c r="G190" t="n">
+        <v>1.039325842696629</v>
+      </c>
+      <c r="H190" t="n">
+        <v>171</v>
+      </c>
+      <c r="I190" t="n">
+        <v>1</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>Colapsará</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Popular</t>
+        </is>
+      </c>
+      <c r="B191" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>12:00-15:00</t>
+        </is>
+      </c>
+      <c r="E191" t="n">
+        <v>129</v>
+      </c>
+      <c r="F191" t="n">
+        <v>57</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0.4418604651162791</v>
+      </c>
+      <c r="H191" t="n">
+        <v>55</v>
+      </c>
+      <c r="I191" t="n">
+        <v>2.498603263366074e-164</v>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>Estable</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Salomia</t>
+        </is>
+      </c>
+      <c r="B192" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>12:00-15:00</t>
+        </is>
+      </c>
+      <c r="E192" t="n">
+        <v>183</v>
+      </c>
+      <c r="F192" t="n">
+        <v>143</v>
+      </c>
+      <c r="G192" t="n">
+        <v>0.7814207650273224</v>
+      </c>
+      <c r="H192" t="n">
+        <v>140</v>
+      </c>
+      <c r="I192" t="n">
+        <v>5.449717584078085e-53</v>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>Estable</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Meléndez</t>
+        </is>
+      </c>
+      <c r="B193" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>15:00-18:00</t>
+        </is>
+      </c>
+      <c r="E193" t="n">
+        <v>165</v>
+      </c>
+      <c r="F193" t="n">
+        <v>139</v>
+      </c>
+      <c r="G193" t="n">
+        <v>0.8424242424242424</v>
+      </c>
+      <c r="H193" t="n">
+        <v>135</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0.9999999330173948</v>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>Colapsará</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Manzana del Saber</t>
+        </is>
+      </c>
+      <c r="B194" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>18:00-21:00</t>
+        </is>
+      </c>
+      <c r="E194" t="n">
+        <v>151</v>
+      </c>
+      <c r="F194" t="n">
+        <v>109</v>
+      </c>
+      <c r="G194" t="n">
+        <v>0.7218543046357616</v>
+      </c>
+      <c r="H194" t="n">
+        <v>109</v>
+      </c>
+      <c r="I194" t="n">
+        <v>5.405822186708782e-75</v>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>Estable</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Terminal Menga</t>
+        </is>
+      </c>
+      <c r="B195" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
         <is>
           <t>09:00-12:00</t>
         </is>
       </c>
-      <c r="E181" t="n">
-        <v>182</v>
-      </c>
-      <c r="F181" t="n">
-        <v>197</v>
-      </c>
-      <c r="G181" t="n">
-        <v>1.082417582417582</v>
-      </c>
-      <c r="H181" t="n">
-        <v>190</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0.9981214429156191</v>
-      </c>
-      <c r="J181" t="inlineStr">
+      <c r="E195" t="n">
+        <v>141</v>
+      </c>
+      <c r="F195" t="n">
+        <v>132.1623111474071</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0.9373213556553694</v>
+      </c>
+      <c r="H195" t="n">
+        <v>130</v>
+      </c>
+      <c r="I195" t="n">
+        <v>1</v>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>Colapsará</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Calipso</t>
+        </is>
+      </c>
+      <c r="B196" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>09:00-12:00</t>
+        </is>
+      </c>
+      <c r="E196" t="n">
+        <v>150</v>
+      </c>
+      <c r="F196" t="n">
+        <v>96</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H196" t="n">
+        <v>97</v>
+      </c>
+      <c r="I196" t="n">
+        <v>2.456644849200149e-42</v>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>Estable</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Terminal Andrés Sanín</t>
+        </is>
+      </c>
+      <c r="B197" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>09:00-12:00</t>
+        </is>
+      </c>
+      <c r="E197" t="n">
+        <v>98</v>
+      </c>
+      <c r="F197" t="n">
+        <v>60</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0.6122448979591837</v>
+      </c>
+      <c r="H197" t="n">
+        <v>56</v>
+      </c>
+      <c r="I197" t="n">
+        <v>1.948505055907795e-51</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>Estable</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Las Américas</t>
+        </is>
+      </c>
+      <c r="B198" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>05:30-09:00</t>
+        </is>
+      </c>
+      <c r="E198" t="n">
+        <v>183</v>
+      </c>
+      <c r="F198" t="n">
+        <v>74</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0.4043715846994536</v>
+      </c>
+      <c r="H198" t="n">
+        <v>89</v>
+      </c>
+      <c r="I198" t="n">
+        <v>1.729539258454815e-117</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>Estable</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Terminal Simón Bolívar</t>
+        </is>
+      </c>
+      <c r="B199" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>09:00-12:00</t>
+        </is>
+      </c>
+      <c r="E199" t="n">
+        <v>185</v>
+      </c>
+      <c r="F199" t="n">
+        <v>80</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0.4324324324324325</v>
+      </c>
+      <c r="H199" t="n">
+        <v>94</v>
+      </c>
+      <c r="I199" t="n">
+        <v>2.142199198302522e-110</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>Estable</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Manzanares</t>
+        </is>
+      </c>
+      <c r="B200" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>21:00-23:00</t>
+        </is>
+      </c>
+      <c r="E200" t="n">
+        <v>96</v>
+      </c>
+      <c r="F200" t="n">
+        <v>76</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="H200" t="n">
+        <v>78</v>
+      </c>
+      <c r="I200" t="n">
+        <v>9.623839519617392e-202</v>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>Estable</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>San Bosco</t>
+        </is>
+      </c>
+      <c r="B201" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>15:00-18:00</t>
+        </is>
+      </c>
+      <c r="E201" t="n">
+        <v>144</v>
+      </c>
+      <c r="F201" t="n">
+        <v>160</v>
+      </c>
+      <c r="G201" t="n">
+        <v>1.111111111111111</v>
+      </c>
+      <c r="H201" t="n">
+        <v>156</v>
+      </c>
+      <c r="I201" t="n">
+        <v>1</v>
+      </c>
+      <c r="J201" t="inlineStr">
         <is>
           <t>Colapsará</t>
         </is>
